--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1208,26 +1208,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A191" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.9140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="9.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col customWidth="true" max="1" min="1" style="4" width="20.6640625"/>
+    <col customWidth="true" max="2" min="2" style="4" width="37.75"/>
+    <col customWidth="true" max="3" min="3" style="4" width="7.6640625"/>
+    <col customWidth="true" max="4" min="4" style="4" width="42.9140625"/>
+    <col customWidth="true" max="5" min="5" style="4" width="11"/>
+    <col customWidth="true" max="6" min="6" style="4" width="12.1640625"/>
+    <col customWidth="true" max="7" min="7" style="4" width="18.25"/>
+    <col customWidth="true" max="8" min="8" style="4" width="21.1640625"/>
+    <col max="9" min="9" style="4" width="9"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" style="4" width="9.4140625"/>
+    <col max="16384" min="11" style="4" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="true" ht="16" r="1" spans="1:10">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1239,167 +1239,189 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row customHeight="true" ht="16" r="2" spans="1:10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E2" s="10">
         <v>484</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F2" s="11">
         <v>1250</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G2" s="7">
         <f t="shared" ref="G4:G25" si="0">F4*E4</f>
         <v>605000</v>
       </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="23">
+        <f>E4+E47+E91+E133+E176</f>
+        <v>3080</v>
+      </c>
+      <c r="J2" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="3" spans="1:10">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10">
+        <v>446</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>557500</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="23">
+        <f t="shared" ref="I5:I34" si="1">E5+E48+E92+E134+E177</f>
+        <v>3037</v>
+      </c>
+      <c r="J3" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10">
+        <v>582</v>
+      </c>
+      <c r="F4" s="11">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>116400</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="23">
-        <f>E4+E47+E91+E133+E176</f>
-        <v>3080</v>
+        <f t="shared" si="1"/>
+        <v>3979</v>
       </c>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="5" spans="1:10">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10">
-        <v>446</v>
+        <v>100</v>
       </c>
       <c r="F5" s="11">
-        <v>1250</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>557500</v>
+        <v>15000</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="23">
-        <f t="shared" ref="I5:I34" si="1">E5+E48+E92+E134+E177</f>
-        <v>3037</v>
+        <f t="shared" si="1"/>
+        <v>1102</v>
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="6" spans="1:10">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10">
-        <v>582</v>
+        <v>1010</v>
       </c>
       <c r="F6" s="11">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>116400</v>
+        <v>909000</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="23">
         <f t="shared" si="1"/>
-        <v>3979</v>
+        <v>6460</v>
       </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="7" spans="1:10">
       <c r="A7" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F7" s="11">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>319000</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="23">
         <f t="shared" si="1"/>
-        <v>1102</v>
+        <v>1674</v>
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="8" spans="1:10">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1408,28 +1430,28 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10">
-        <v>1010</v>
+        <v>330</v>
       </c>
       <c r="F8" s="11">
-        <v>900</v>
+        <v>1850</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>909000</v>
+        <v>610500</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="23">
         <f t="shared" si="1"/>
-        <v>6460</v>
+        <v>1976</v>
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="9" spans="1:10">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1438,28 +1460,28 @@
         <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F9" s="11">
-        <v>1100</v>
+        <v>1850</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>319000</v>
+        <v>503200</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="23">
         <f t="shared" si="1"/>
-        <v>1674</v>
+        <v>2405</v>
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="10" spans="1:10">
       <c r="A10" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1467,89 +1489,89 @@
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="10">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="F10" s="11">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>610500</v>
+        <v>561700</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>1976</v>
+        <v>2096</v>
       </c>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="11" spans="1:10">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10">
-        <v>272</v>
+        <v>551</v>
       </c>
       <c r="F11" s="11">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>503200</v>
+        <v>1129550</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="23">
         <f t="shared" si="1"/>
-        <v>2405</v>
+        <v>4994</v>
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="12" spans="1:10">
       <c r="A12" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
+      <c r="C12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="10">
-        <v>274</v>
+        <v>945</v>
       </c>
       <c r="F12" s="11">
-        <v>2050</v>
+        <v>1200</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>561700</v>
+        <v>1134000</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="23">
         <f t="shared" si="1"/>
-        <v>2096</v>
+        <v>4610</v>
       </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="13" spans="1:10">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1558,144 +1580,144 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10">
-        <v>551</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="11">
-        <v>2050</v>
+        <v>1159</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>1129550</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="23">
         <f t="shared" si="1"/>
-        <v>4994</v>
+        <v>53</v>
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="14" spans="1:10">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="10">
-        <v>945</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="11">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>1134000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="23">
         <f t="shared" si="1"/>
-        <v>4610</v>
+        <v>2</v>
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="15" spans="1:10">
       <c r="A15" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10">
+        <v>30</v>
+      </c>
       <c r="F15" s="11">
-        <v>1159</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="23">
+      <c r="I15" s="24">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="16" spans="1:10">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="10">
+        <v>275</v>
+      </c>
       <c r="F16" s="11">
-        <v>1160</v>
+        <v>750</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206250</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3840</v>
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="17" spans="1:10">
       <c r="A17" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F17" s="11">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>1061</v>
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="18" spans="1:10">
       <c r="A18" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1704,101 +1726,97 @@
         <v>11</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="F18" s="11">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>206250</v>
+        <v>78000</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>3840</v>
+        <v>1544</v>
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
-        <v>16</v>
+    <row customHeight="true" ht="16" r="19" spans="1:10">
+      <c r="A19" s="13">
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="10">
-        <v>10</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="11">
         <v>1300</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="23">
         <f t="shared" si="1"/>
-        <v>1061</v>
+        <v>7</v>
       </c>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="20" spans="1:10">
       <c r="A20" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="10">
-        <v>60</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="11">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="23">
         <f t="shared" si="1"/>
-        <v>1544</v>
+        <v>0</v>
       </c>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13">
-        <v>18</v>
+    <row customHeight="true" ht="16" r="21" spans="1:10">
+      <c r="A21" s="8">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
@@ -1807,26 +1825,26 @@
       <c r="H21" s="5"/>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="22" spans="1:10">
       <c r="A22" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11">
-        <v>3500</v>
+        <v>750</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
@@ -1839,22 +1857,22 @@
       </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="23" spans="1:10">
       <c r="A23" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
@@ -1867,9 +1885,9 @@
       </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="24" spans="1:10">
       <c r="A24" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1878,14 +1896,14 @@
         <v>11</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G26:G34" si="2">F26*E26</f>
         <v>0</v>
       </c>
       <c r="H24" s="5"/>
@@ -1895,9 +1913,9 @@
       </c>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="25" spans="1:10">
       <c r="A25" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1906,14 +1924,14 @@
         <v>11</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11">
-        <v>1300</v>
+        <v>2750</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="5"/>
@@ -1923,9 +1941,9 @@
       </c>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="26" spans="1:10">
       <c r="A26" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -1934,67 +1952,67 @@
         <v>11</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ref="G26:G34" si="2">F26*E26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="23">
+      <c r="I26" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="27" spans="1:10">
       <c r="A27" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11">
-        <v>2750</v>
+        <v>1306</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="23">
+      <c r="I27" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="28" spans="1:10">
       <c r="A28" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11">
-        <v>3000</v>
+        <v>1307</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
@@ -2007,22 +2025,22 @@
       </c>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="29" spans="1:10">
       <c r="A29" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11">
-        <v>1306</v>
+        <v>2700</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
@@ -2035,22 +2053,22 @@
       </c>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="30" spans="1:10">
       <c r="A30" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11">
-        <v>1307</v>
+        <v>2700</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
@@ -2063,9 +2081,9 @@
       </c>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="31" spans="1:10">
       <c r="A31" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -2074,11 +2092,11 @@
         <v>11</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
@@ -2091,9 +2109,9 @@
       </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="32" spans="1:10">
       <c r="A32" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2102,11 +2120,11 @@
         <v>11</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
@@ -2119,264 +2137,380 @@
       </c>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="33" spans="1:10">
       <c r="A33" s="8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="10">
+        <v>530</v>
+      </c>
       <c r="F33" s="11">
-        <v>3000</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8">
-        <v>31</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11">
-        <v>3000</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="14">
-        <f>SUM(E3:E34)</f>
-        <v>5659</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1550</v>
-      </c>
-      <c r="G35" s="7">
-        <f>SUM(G4:G34)</f>
-        <v>6788100</v>
-      </c>
-      <c r="H35" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="7" t="e">
-        <f>G35-H35</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="8">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="10">
-        <v>530</v>
-      </c>
-      <c r="F47" s="11">
         <v>1250</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G33" s="22">
         <f t="shared" ref="G47:G65" si="3">F47*E47</f>
         <v>662500</v>
       </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="34" spans="1:10">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10">
+        <v>515</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="3"/>
+        <v>643750</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10">
+        <v>400</v>
+      </c>
+      <c r="F35" s="11">
+        <v>200</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+      <c r="H35" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="36" spans="1:8">
+      <c r="A36" s="8">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="10">
+        <v>160</v>
+      </c>
+      <c r="F36" s="11">
+        <v>150</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="H36" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="10">
+        <v>925</v>
+      </c>
+      <c r="F37" s="11">
+        <v>900</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="3"/>
+        <v>832500</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="38" spans="1:8">
+      <c r="A38" s="8">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10">
+        <v>283</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="3"/>
+        <v>283000</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="39" spans="1:8">
+      <c r="A39" s="8">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="10">
+        <v>150</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="3"/>
+        <v>270000</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="40" spans="1:8">
+      <c r="A40" s="8">
+        <v>8</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="10">
+        <v>150</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="3"/>
+        <v>270000</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="41" spans="1:8">
+      <c r="A41" s="8">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10">
+        <v>201</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1950</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="3"/>
+        <v>391950</v>
+      </c>
+      <c r="H41" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="42" spans="1:8">
+      <c r="A42" s="8">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="10">
+        <v>700</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1950</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="3"/>
+        <v>1365000</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="10">
+        <v>915</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="3"/>
+        <v>1098000</v>
+      </c>
+      <c r="H43" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="44" spans="1:8">
+      <c r="A44" s="8">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="10">
+        <v>49</v>
+      </c>
+      <c r="F44" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="3"/>
+        <v>220500</v>
+      </c>
+      <c r="H44" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="45" spans="1:8">
+      <c r="A45" s="8">
+        <v>13</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11">
+        <v>410</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="46" spans="1:8">
+      <c r="A46" s="8">
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11">
+        <v>411</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>15</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="10">
+        <v>414</v>
+      </c>
+      <c r="F47" s="11">
+        <v>750</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="3"/>
+        <v>310500</v>
+      </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="48" spans="1:8">
       <c r="A48" s="8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -2384,124 +2518,116 @@
       <c r="C48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="10">
-        <v>515</v>
-      </c>
+      <c r="D48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="11">
-        <v>1250</v>
+        <v>413</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" si="3"/>
-        <v>643750</v>
+        <v>0</v>
       </c>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="49" spans="1:8">
       <c r="A49" s="8">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E49" s="10">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="F49" s="11">
-        <v>200</v>
+        <v>1350</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>6750</v>
       </c>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8">
-        <v>4</v>
+    <row customHeight="true" ht="16" r="50" spans="1:8">
+      <c r="A50" s="13">
+        <v>18</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="10">
-        <v>160</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="11">
-        <v>150</v>
+        <v>3050</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="51" spans="1:8">
       <c r="A51" s="8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="10">
-        <v>925</v>
-      </c>
+      <c r="D51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="11">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>832500</v>
+        <v>0</v>
       </c>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="52" spans="1:8">
       <c r="A52" s="8">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="10">
-        <v>283</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="11">
         <v>1000</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" si="3"/>
-        <v>283000</v>
+        <f t="shared" ref="G66:G77" si="4">F66*E66</f>
+        <v>0</v>
       </c>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" ht="16" r="53" spans="1:8">
       <c r="A53" s="8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -2509,50 +2635,46 @@
       <c r="C53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11">
+        <v>750</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="54" spans="1:8">
+      <c r="A54" s="8">
         <v>22</v>
       </c>
-      <c r="E53" s="10">
-        <v>150</v>
-      </c>
-      <c r="F53" s="11">
-        <v>1800</v>
-      </c>
-      <c r="G53" s="22">
-        <f t="shared" si="3"/>
-        <v>270000</v>
-      </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="8">
-        <v>8</v>
-      </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="55" spans="1:8">
+      <c r="A55" s="8">
         <v>23</v>
       </c>
-      <c r="E54" s="10">
-        <v>150</v>
-      </c>
-      <c r="F54" s="11">
-        <v>1800</v>
-      </c>
-      <c r="G54" s="22">
-        <f t="shared" si="3"/>
-        <v>270000</v>
-      </c>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="8">
-        <v>9</v>
-      </c>
       <c r="B55" s="5" t="s">
         <v>10</v>
       </c>
@@ -2560,1280 +2682,1442 @@
         <v>11</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G55" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="56" spans="1:8">
+      <c r="A56" s="8">
         <v>24</v>
       </c>
-      <c r="E55" s="10">
-        <v>201</v>
-      </c>
-      <c r="F55" s="11">
-        <v>1950</v>
-      </c>
-      <c r="G55" s="22">
-        <f t="shared" si="3"/>
-        <v>391950</v>
-      </c>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8">
-        <v>10</v>
-      </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11">
+        <v>2650</v>
+      </c>
+      <c r="G56" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15"/>
+    </row>
+    <row customHeight="true" ht="16" r="57" spans="1:8">
+      <c r="A57" s="8">
         <v>25</v>
       </c>
-      <c r="E56" s="10">
-        <v>700</v>
-      </c>
-      <c r="F56" s="11">
-        <v>1950</v>
-      </c>
-      <c r="G56" s="22">
-        <f t="shared" si="3"/>
-        <v>1365000</v>
-      </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8">
-        <v>11</v>
-      </c>
       <c r="B57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11">
+        <v>2250</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="15"/>
+    </row>
+    <row customHeight="true" hidden="true" ht="16" r="58" spans="1:8">
+      <c r="A58" s="8">
         <v>26</v>
       </c>
-      <c r="E57" s="10">
-        <v>915</v>
-      </c>
-      <c r="F57" s="11">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="22">
-        <f t="shared" si="3"/>
-        <v>1098000</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8">
-        <v>12</v>
-      </c>
       <c r="B58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11">
+        <v>240</v>
+      </c>
+      <c r="G58" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="15"/>
+    </row>
+    <row customHeight="true" hidden="true" ht="16" r="59" spans="1:8">
+      <c r="A59" s="8">
         <v>27</v>
       </c>
-      <c r="E58" s="10">
-        <v>49</v>
-      </c>
-      <c r="F58" s="11">
-        <v>4500</v>
-      </c>
-      <c r="G58" s="22">
-        <f t="shared" si="3"/>
-        <v>220500</v>
-      </c>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8">
-        <v>13</v>
-      </c>
       <c r="B59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="11">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="G59" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="60" spans="1:8">
       <c r="A60" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="11">
-        <v>411</v>
+        <v>2600</v>
       </c>
       <c r="G60" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="61" spans="1:8">
       <c r="A61" s="8">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="10">
-        <v>414</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="11">
-        <v>750</v>
+        <v>2600</v>
       </c>
       <c r="G61" s="22">
-        <f t="shared" si="3"/>
-        <v>310500</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="62" spans="1:8">
       <c r="A62" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="11">
-        <v>413</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row customHeight="true" hidden="true" ht="16" r="63" spans="1:8">
       <c r="A63" s="8">
+        <v>31</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="15"/>
+    </row>
+    <row ht="16.5" r="64" spans="1:8">
+      <c r="A64" s="8">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="10">
+        <v>875</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" ref="G91:G106" si="5">F91*E91</f>
+        <v>1137500</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row ht="16.5" r="65" spans="1:8">
+      <c r="A65" s="8">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="10">
+        <v>718</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="5"/>
+        <v>933400</v>
+      </c>
+      <c r="H65" s="15"/>
+    </row>
+    <row ht="16.5" r="66" spans="1:8">
+      <c r="A66" s="8">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="10">
+        <v>1588</v>
+      </c>
+      <c r="F66" s="11">
+        <v>200</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="5"/>
+        <v>317600</v>
+      </c>
+      <c r="H66" s="15"/>
+    </row>
+    <row ht="16.5" r="67" spans="1:8">
+      <c r="A67" s="8">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="C67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="10">
+        <v>420</v>
+      </c>
+      <c r="F67" s="11">
+        <v>150</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="5"/>
+        <v>63000</v>
+      </c>
+      <c r="H67" s="15"/>
+    </row>
+    <row ht="16.5" r="68" spans="1:8">
+      <c r="A68" s="8">
         <v>5</v>
       </c>
-      <c r="F63" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G63" s="22">
-        <f t="shared" si="3"/>
-        <v>6750</v>
-      </c>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="13">
-        <v>18</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11">
-        <v>3050</v>
-      </c>
-      <c r="G64" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8">
-        <v>19</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G65" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8">
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="22">
-        <f t="shared" ref="G66:G77" si="4">F66*E66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8">
+      <c r="E68" s="10">
+        <v>1928</v>
+      </c>
+      <c r="F68" s="11">
+        <v>900</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="5"/>
+        <v>1735200</v>
+      </c>
+      <c r="H68" s="15"/>
+    </row>
+    <row ht="16.5" r="69" spans="1:8">
+      <c r="A69" s="8">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="11">
-        <v>750</v>
-      </c>
-      <c r="G67" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8">
+      <c r="E69" s="10">
+        <v>422</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1050</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="5"/>
+        <v>443100</v>
+      </c>
+      <c r="H69" s="15"/>
+    </row>
+    <row ht="16.5" r="70" spans="1:8">
+      <c r="A70" s="8">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G68" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8">
+      <c r="E70" s="10">
+        <v>436</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="5"/>
+        <v>828400</v>
+      </c>
+      <c r="H70" s="15"/>
+    </row>
+    <row ht="16.5" r="71" spans="1:8">
+      <c r="A71" s="8">
+        <v>8</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G69" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="8">
+      <c r="E71" s="10">
+        <v>512</v>
+      </c>
+      <c r="F71" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="5"/>
+        <v>972800</v>
+      </c>
+      <c r="H71" s="15"/>
+    </row>
+    <row ht="16.5" r="72" spans="1:8">
+      <c r="A72" s="8">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11">
-        <v>2650</v>
-      </c>
-      <c r="G70" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="8">
+      <c r="E72" s="10">
+        <v>709</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="5"/>
+        <v>1488900</v>
+      </c>
+      <c r="H72" s="15"/>
+    </row>
+    <row ht="16.5" r="73" spans="1:8">
+      <c r="A73" s="8">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11">
-        <v>2250</v>
-      </c>
-      <c r="G71" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="8">
+      <c r="E73" s="10">
+        <v>1704</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="5"/>
+        <v>3578400</v>
+      </c>
+      <c r="H73" s="15"/>
+    </row>
+    <row ht="16.5" r="74" spans="1:8">
+      <c r="A74" s="8">
+        <v>11</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11">
-        <v>240</v>
-      </c>
-      <c r="G72" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="8">
+      <c r="E74" s="10">
+        <v>1436</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="5"/>
+        <v>1723200</v>
+      </c>
+      <c r="H74" s="15"/>
+    </row>
+    <row ht="16.5" r="75" spans="1:8">
+      <c r="A75" s="8">
+        <v>12</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11">
-        <v>240</v>
-      </c>
-      <c r="G73" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8">
-        <v>28</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11">
-        <v>2600</v>
-      </c>
-      <c r="G74" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8">
-        <v>29</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="11">
-        <v>2600</v>
-      </c>
-      <c r="G75" s="22">
-        <f t="shared" si="4"/>
+        <v>1611</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="76" spans="1:8">
       <c r="A76" s="8">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="E76" s="10">
+        <v>2</v>
+      </c>
       <c r="F76" s="11">
-        <v>2600</v>
-      </c>
-      <c r="G76" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8">
-        <v>31</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="14">
-        <f>SUM(E47:E77)</f>
-        <v>5397</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14">
-        <f>SUM(G47:G77)</f>
-        <v>6458450</v>
-      </c>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" s="22">
-        <f>G78-H78</f>
-        <v>6458450</v>
-      </c>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="49"/>
-    </row>
-    <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-    </row>
-    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A91" s="8">
-        <v>1</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="10">
-        <v>875</v>
-      </c>
-      <c r="F91" s="11">
-        <v>1300</v>
-      </c>
-      <c r="G91" s="7">
-        <f t="shared" ref="G91:G106" si="5">F91*E91</f>
-        <v>1137500</v>
-      </c>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A92" s="8">
-        <v>2</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="10">
-        <v>718</v>
-      </c>
-      <c r="F92" s="11">
-        <v>1300</v>
-      </c>
-      <c r="G92" s="7">
-        <f t="shared" si="5"/>
-        <v>933400</v>
-      </c>
-      <c r="H92" s="15"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A93" s="8">
-        <v>3</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="10">
-        <v>1588</v>
-      </c>
-      <c r="F93" s="11">
-        <v>200</v>
-      </c>
-      <c r="G93" s="7">
-        <f t="shared" si="5"/>
-        <v>317600</v>
-      </c>
-      <c r="H93" s="15"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A94" s="8">
-        <v>4</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="10">
-        <v>420</v>
-      </c>
-      <c r="F94" s="11">
-        <v>150</v>
-      </c>
-      <c r="G94" s="7">
-        <f t="shared" si="5"/>
-        <v>63000</v>
-      </c>
-      <c r="H94" s="15"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A95" s="8">
-        <v>5</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="10">
-        <v>1928</v>
-      </c>
-      <c r="F95" s="11">
-        <v>900</v>
-      </c>
-      <c r="G95" s="7">
-        <f t="shared" si="5"/>
-        <v>1735200</v>
-      </c>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A96" s="8">
-        <v>6</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="10">
-        <v>422</v>
-      </c>
-      <c r="F96" s="11">
-        <v>1050</v>
-      </c>
-      <c r="G96" s="7">
-        <f t="shared" si="5"/>
-        <v>443100</v>
-      </c>
-      <c r="H96" s="15"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A97" s="8">
-        <v>7</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="10">
-        <v>436</v>
-      </c>
-      <c r="F97" s="11">
-        <v>1900</v>
-      </c>
-      <c r="G97" s="7">
-        <f t="shared" si="5"/>
-        <v>828400</v>
-      </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A98" s="8">
-        <v>8</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="10">
-        <v>512</v>
-      </c>
-      <c r="F98" s="11">
-        <v>1900</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="5"/>
-        <v>972800</v>
-      </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A99" s="8">
-        <v>9</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="10">
-        <v>709</v>
-      </c>
-      <c r="F99" s="11">
-        <v>2100</v>
-      </c>
-      <c r="G99" s="7">
-        <f t="shared" si="5"/>
-        <v>1488900</v>
-      </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A100" s="8">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="10">
-        <v>1704</v>
-      </c>
-      <c r="F100" s="11">
-        <v>2100</v>
-      </c>
-      <c r="G100" s="7">
-        <f t="shared" si="5"/>
-        <v>3578400</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A101" s="8">
-        <v>11</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="10">
-        <v>1436</v>
-      </c>
-      <c r="F101" s="11">
-        <v>1200</v>
-      </c>
-      <c r="G101" s="7">
-        <f t="shared" si="5"/>
-        <v>1723200</v>
-      </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A102" s="8">
-        <v>12</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="11">
-        <v>1611</v>
-      </c>
-      <c r="G102" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="15"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A103" s="8">
-        <v>13</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="10">
-        <v>2</v>
-      </c>
-      <c r="F103" s="11">
         <v>3500</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G76" s="7">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A104" s="8">
+      <c r="H76" s="15"/>
+    </row>
+    <row ht="16.5" r="77" spans="1:8">
+      <c r="A77" s="8">
         <v>14</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E77" s="10">
         <v>163</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F77" s="11">
         <v>1000</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G77" s="7">
         <f t="shared" si="5"/>
         <v>163000</v>
       </c>
-      <c r="H104" s="15"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A105" s="8">
+      <c r="H77" s="15"/>
+    </row>
+    <row ht="16.5" r="78" spans="1:8">
+      <c r="A78" s="8">
         <v>15</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="12" t="s">
+      <c r="B78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E78" s="10">
         <v>1892</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F78" s="11">
         <v>800</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G78" s="7">
         <f t="shared" si="5"/>
         <v>1513600</v>
       </c>
-      <c r="H105" s="15"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A106" s="8">
+      <c r="H78" s="15"/>
+    </row>
+    <row ht="16.5" r="79" spans="1:8">
+      <c r="A79" s="8">
         <v>16</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="12" t="s">
+      <c r="B79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E79" s="10">
         <v>77</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F79" s="11">
         <v>1350</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G79" s="7">
         <f t="shared" si="5"/>
         <v>103950</v>
       </c>
-      <c r="H106" s="15"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A107" s="8">
+      <c r="H79" s="15"/>
+    </row>
+    <row ht="16.5" r="80" spans="1:8">
+      <c r="A80" s="8">
         <v>17</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="12" t="s">
+      <c r="B80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E80" s="10">
         <v>398</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F80" s="11">
         <v>1350</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G80" s="7">
         <f t="shared" ref="G107:G121" si="6">F107*E107</f>
         <v>537300</v>
       </c>
+      <c r="H80" s="15"/>
+    </row>
+    <row ht="16.5" r="81" spans="1:8">
+      <c r="A81" s="13">
+        <v>18</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="15"/>
+    </row>
+    <row ht="16.5" r="82" spans="1:8">
+      <c r="A82" s="8">
+        <v>19</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="15"/>
+    </row>
+    <row ht="16.5" r="83" spans="1:8">
+      <c r="A83" s="8">
+        <v>20</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="15"/>
+    </row>
+    <row ht="16.5" r="84" spans="1:8">
+      <c r="A84" s="8">
+        <v>21</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11">
+        <v>800</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="15"/>
+    </row>
+    <row ht="16.5" r="85" spans="1:8">
+      <c r="A85" s="8">
+        <v>22</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="15"/>
+    </row>
+    <row ht="16.5" r="86" spans="1:8">
+      <c r="A86" s="8">
+        <v>23</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="15"/>
+    </row>
+    <row ht="16.5" r="87" spans="1:8">
+      <c r="A87" s="8">
+        <v>24</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row ht="16.5" r="88" spans="1:8">
+      <c r="A88" s="8">
+        <v>25</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="89" spans="1:8">
+      <c r="A89" s="8">
+        <v>26</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11">
+        <v>240</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="90" spans="1:8">
+      <c r="A90" s="8">
+        <v>27</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11">
+        <v>240</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="91" spans="1:8">
+      <c r="A91" s="8">
+        <v>28</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="92" spans="1:8">
+      <c r="A92" s="8">
+        <v>29</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="93" spans="1:8">
+      <c r="A93" s="8">
+        <v>30</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="94" spans="1:8">
+      <c r="A94" s="8">
+        <v>31</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="15"/>
+    </row>
+    <row ht="16.5" r="95" spans="1:8">
+      <c r="A95" s="8">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="10">
+        <v>616</v>
+      </c>
+      <c r="F95" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" ref="G133:G148" si="7">F133*E133</f>
+        <v>770000</v>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row ht="16.5" r="96" spans="1:8">
+      <c r="A96" s="8">
+        <v>2</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="10">
+        <v>728</v>
+      </c>
+      <c r="F96" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="7"/>
+        <v>910000</v>
+      </c>
+      <c r="H96" s="15"/>
+    </row>
+    <row ht="16.5" r="97" spans="1:8">
+      <c r="A97" s="8">
+        <v>3</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="10">
+        <v>709</v>
+      </c>
+      <c r="F97" s="11">
+        <v>200</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="7"/>
+        <v>141800</v>
+      </c>
+      <c r="H97" s="15"/>
+    </row>
+    <row ht="16.5" r="98" spans="1:8">
+      <c r="A98" s="8">
+        <v>4</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="10">
+        <v>222</v>
+      </c>
+      <c r="F98" s="11">
+        <v>150</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="7"/>
+        <v>33300</v>
+      </c>
+      <c r="H98" s="15"/>
+    </row>
+    <row ht="16.5" r="99" spans="1:8">
+      <c r="A99" s="8">
+        <v>5</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1687</v>
+      </c>
+      <c r="F99" s="11">
+        <v>900</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="7"/>
+        <v>1518300</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row ht="16.5" r="100" spans="1:8">
+      <c r="A100" s="8">
+        <v>6</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="10">
+        <v>434</v>
+      </c>
+      <c r="F100" s="11">
+        <v>1050</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="7"/>
+        <v>455700</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row ht="16.5" r="101" spans="1:8">
+      <c r="A101" s="8">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="10">
+        <v>860</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1850</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="7"/>
+        <v>1591000</v>
+      </c>
+      <c r="H101" s="15"/>
+    </row>
+    <row ht="16.5" r="102" spans="1:8">
+      <c r="A102" s="8">
+        <v>8</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1131</v>
+      </c>
+      <c r="F102" s="11">
+        <v>1850</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="7"/>
+        <v>2092350</v>
+      </c>
+      <c r="H102" s="15"/>
+    </row>
+    <row ht="16.5" r="103" spans="1:8">
+      <c r="A103" s="8">
+        <v>9</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="10">
+        <v>572</v>
+      </c>
+      <c r="F103" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="7"/>
+        <v>1144000</v>
+      </c>
+      <c r="H103" s="15"/>
+    </row>
+    <row ht="16.5" r="104" spans="1:8">
+      <c r="A104" s="8">
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1189</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="7"/>
+        <v>2378000</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row ht="16.5" r="105" spans="1:8">
+      <c r="A105" s="8">
+        <v>11</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="10">
+        <v>614</v>
+      </c>
+      <c r="F105" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="7"/>
+        <v>736800</v>
+      </c>
+      <c r="H105" s="15"/>
+    </row>
+    <row ht="16.5" r="106" spans="1:8">
+      <c r="A106" s="8">
+        <v>12</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="10">
+        <v>4</v>
+      </c>
+      <c r="F106" s="11">
+        <v>5100</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" si="7"/>
+        <v>20400</v>
+      </c>
+      <c r="H106" s="15"/>
+    </row>
+    <row ht="16.5" r="107" spans="1:8">
+      <c r="A107" s="8">
+        <v>13</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="11">
+        <v>1360</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A108" s="13">
+    <row ht="16.5" r="108" spans="1:8">
+      <c r="A108" s="8">
+        <v>14</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="10">
+        <v>50</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="H108" s="15"/>
+    </row>
+    <row ht="16.5" r="109" spans="1:8">
+      <c r="A109" s="8">
+        <v>15</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="10">
+        <v>899</v>
+      </c>
+      <c r="F109" s="11">
+        <v>750</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="7"/>
+        <v>674250</v>
+      </c>
+      <c r="H109" s="15"/>
+    </row>
+    <row ht="16.5" r="110" spans="1:8">
+      <c r="A110" s="8">
+        <v>16</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="10">
+        <v>964</v>
+      </c>
+      <c r="F110" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="7"/>
+        <v>1349600</v>
+      </c>
+      <c r="H110" s="15"/>
+    </row>
+    <row ht="16.5" r="111" spans="1:8">
+      <c r="A111" s="8">
+        <v>17</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="10">
+        <v>991</v>
+      </c>
+      <c r="F111" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" ref="G149:G163" si="8">F149*E149</f>
+        <v>1387400</v>
+      </c>
+      <c r="H111" s="15"/>
+    </row>
+    <row ht="16.5" r="112" spans="1:8">
+      <c r="A112" s="13">
         <v>18</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="12" t="s">
+      <c r="B112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="11">
-        <v>3050</v>
-      </c>
-      <c r="G108" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="15"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A109" s="8">
+      <c r="E112" s="10">
+        <v>7</v>
+      </c>
+      <c r="F112" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="8"/>
+        <v>22400</v>
+      </c>
+      <c r="H112" s="15"/>
+    </row>
+    <row ht="16.5" r="113" spans="1:8">
+      <c r="A113" s="8">
         <v>19</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="12" t="s">
+      <c r="C113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G109" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="15"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A110" s="8">
-        <v>20</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G110" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="15"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A111" s="8">
-        <v>21</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="11">
-        <v>800</v>
-      </c>
-      <c r="G111" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="15"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A112" s="8">
-        <v>22</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G112" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A113" s="8">
-        <v>23</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="11">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="114" spans="1:8">
       <c r="A114" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="11">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="115" spans="1:8">
       <c r="A115" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>10</v>
@@ -3842,660 +4126,764 @@
         <v>11</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="11">
-        <v>3050</v>
+        <v>1500</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="116" spans="1:8">
       <c r="A116" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="11">
-        <v>240</v>
+        <v>3200</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="117" spans="1:8">
       <c r="A117" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="11">
-        <v>240</v>
+        <v>3000</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="118" spans="1:8">
       <c r="A118" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="11">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="119" spans="1:8">
       <c r="A119" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="11">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="120" spans="1:8">
       <c r="A120" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="11">
-        <v>3050</v>
+        <v>240</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="121" spans="1:8">
       <c r="A121" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="11">
-        <v>3050</v>
+        <v>240</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H121" s="15"/>
     </row>
-    <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="14">
-        <f>SUM(E91:E121)</f>
-        <v>13280</v>
-      </c>
-      <c r="F122" s="6">
+    <row hidden="true" ht="16.5" r="122" spans="1:8">
+      <c r="A122" s="8">
+        <v>28</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>29</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="11">
+        <v>2700</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>30</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="15"/>
+    </row>
+    <row hidden="true" ht="16.5" r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>31</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="11">
+        <v>3400</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="15"/>
+    </row>
+    <row ht="16.5" r="126" spans="1:8">
+      <c r="A126" s="8">
+        <v>1</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="10">
+        <v>575</v>
+      </c>
+      <c r="F126" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" ref="G176:G189" si="9">F176*E176</f>
+        <v>747500</v>
+      </c>
+      <c r="H126" s="15"/>
+    </row>
+    <row ht="16.5" r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>2</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="10">
+        <v>630</v>
+      </c>
+      <c r="F127" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G127" s="7">
+        <f t="shared" si="9"/>
+        <v>819000</v>
+      </c>
+      <c r="H127" s="15"/>
+    </row>
+    <row ht="16.5" r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>3</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="10">
+        <v>700</v>
+      </c>
+      <c r="F128" s="11">
+        <v>200</v>
+      </c>
+      <c r="G128" s="7">
+        <f t="shared" si="9"/>
+        <v>140000</v>
+      </c>
+      <c r="H128" s="15"/>
+    </row>
+    <row ht="16.5" r="129" spans="1:8">
+      <c r="A129" s="8">
+        <v>4</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="10">
+        <v>200</v>
+      </c>
+      <c r="F129" s="11">
+        <v>150</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" si="9"/>
+        <v>30000</v>
+      </c>
+      <c r="H129" s="15"/>
+    </row>
+    <row ht="16.5" r="130" spans="1:8">
+      <c r="A130" s="8">
+        <v>5</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="10">
+        <v>910</v>
+      </c>
+      <c r="F130" s="11">
+        <v>900</v>
+      </c>
+      <c r="G130" s="7">
+        <f t="shared" si="9"/>
+        <v>819000</v>
+      </c>
+      <c r="H130" s="15"/>
+    </row>
+    <row ht="16.5" r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>6</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="10">
+        <v>245</v>
+      </c>
+      <c r="F131" s="11">
+        <v>1100</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" si="9"/>
+        <v>269500</v>
+      </c>
+      <c r="H131" s="15"/>
+    </row>
+    <row ht="16.5" r="132" spans="1:8">
+      <c r="A132" s="8">
+        <v>7</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="10">
+        <v>200</v>
+      </c>
+      <c r="F132" s="11">
+        <v>1850</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" si="9"/>
+        <v>370000</v>
+      </c>
+      <c r="H132" s="15"/>
+    </row>
+    <row ht="16.5" r="133" spans="1:8">
+      <c r="A133" s="8">
+        <v>8</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="10">
+        <v>340</v>
+      </c>
+      <c r="F133" s="11">
+        <v>1850</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" si="9"/>
+        <v>629000</v>
+      </c>
+      <c r="H133" s="15"/>
+    </row>
+    <row ht="16.5" r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>9</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="10">
+        <v>340</v>
+      </c>
+      <c r="F134" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" si="9"/>
+        <v>714000</v>
+      </c>
+      <c r="H134" s="15"/>
+    </row>
+    <row ht="16.5" r="135" spans="1:8">
+      <c r="A135" s="8">
+        <v>10</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="10">
         <v>850</v>
       </c>
-      <c r="G122" s="14">
-        <f>SUM(G91:G121)</f>
-        <v>15546350</v>
-      </c>
-      <c r="H122" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G123" s="22">
-        <f>G122-H122</f>
-        <v>15546350</v>
-      </c>
-      <c r="H123" s="15"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="49"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="15"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="F135" s="11">
+        <v>2100</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" si="9"/>
+        <v>1785000</v>
+      </c>
+      <c r="H135" s="15"/>
+    </row>
+    <row ht="16.5" r="136" spans="1:8">
+      <c r="A136" s="8">
+        <v>11</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="10">
+        <v>700</v>
+      </c>
+      <c r="F136" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G136" s="7">
+        <f t="shared" si="9"/>
+        <v>840000</v>
+      </c>
+      <c r="H136" s="15"/>
+    </row>
+    <row ht="16.5" r="137" spans="1:8">
+      <c r="A137" s="8">
+        <v>12</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="11">
+        <v>311</v>
+      </c>
+      <c r="G137" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="15"/>
+    </row>
+    <row ht="16.5" r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>13</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="11">
+        <v>312</v>
+      </c>
+      <c r="G138" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="15"/>
+    </row>
+    <row ht="16.5" r="139" spans="1:8">
+      <c r="A139" s="8">
+        <v>14</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="10">
         <v>50</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="5"/>
-    </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B129" s="52"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="55"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-    </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A133" s="8">
-        <v>1</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="10">
-        <v>616</v>
-      </c>
-      <c r="F133" s="11">
-        <v>1250</v>
-      </c>
-      <c r="G133" s="7">
-        <f t="shared" ref="G133:G148" si="7">F133*E133</f>
-        <v>770000</v>
-      </c>
-      <c r="H133" s="15"/>
-    </row>
-    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A134" s="8">
-        <v>2</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="10">
-        <v>728</v>
-      </c>
-      <c r="F134" s="11">
-        <v>1250</v>
-      </c>
-      <c r="G134" s="7">
-        <f t="shared" si="7"/>
-        <v>910000</v>
-      </c>
-      <c r="H134" s="15"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A135" s="8">
-        <v>3</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="F139" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G139" s="7">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="H139" s="15"/>
+    </row>
+    <row ht="16.5" r="140" spans="1:8">
+      <c r="A140" s="8">
         <v>15</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="B140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="10">
+        <v>360</v>
+      </c>
+      <c r="F140" s="11">
+        <v>750</v>
+      </c>
+      <c r="G140" s="7">
+        <f t="shared" ref="G190:G206" si="10">F190*E190</f>
+        <v>270000</v>
+      </c>
+      <c r="H140" s="15"/>
+    </row>
+    <row ht="16.5" r="141" spans="1:8">
+      <c r="A141" s="8">
         <v>16</v>
       </c>
-      <c r="E135" s="10">
-        <v>709</v>
-      </c>
-      <c r="F135" s="11">
-        <v>200</v>
-      </c>
-      <c r="G135" s="7">
-        <f t="shared" si="7"/>
-        <v>141800</v>
-      </c>
-      <c r="H135" s="15"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A136" s="8">
-        <v>4</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="B141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="10">
+        <v>10</v>
+      </c>
+      <c r="F141" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G141" s="7">
+        <f t="shared" si="10"/>
+        <v>13500</v>
+      </c>
+      <c r="H141" s="15"/>
+    </row>
+    <row ht="16.5" r="142" spans="1:8">
+      <c r="A142" s="8">
         <v>17</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="B142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="10">
+        <v>90</v>
+      </c>
+      <c r="F142" s="11">
+        <v>1350</v>
+      </c>
+      <c r="G142" s="7">
+        <f t="shared" si="10"/>
+        <v>121500</v>
+      </c>
+      <c r="H142" s="15"/>
+    </row>
+    <row ht="16.5" r="143" spans="1:8">
+      <c r="A143" s="13">
         <v>18</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="B143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G143" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H143" s="15"/>
+    </row>
+    <row ht="16.5" r="144" spans="1:8">
+      <c r="A144" s="8">
         <v>19</v>
       </c>
-      <c r="E136" s="10">
-        <v>222</v>
-      </c>
-      <c r="F136" s="11">
-        <v>150</v>
-      </c>
-      <c r="G136" s="7">
-        <f t="shared" si="7"/>
-        <v>33300</v>
-      </c>
-      <c r="H136" s="15"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A137" s="8">
-        <v>5</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="B144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G144" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="15"/>
+    </row>
+    <row ht="16.5" r="145" spans="1:8">
+      <c r="A145" s="8">
         <v>20</v>
       </c>
-      <c r="E137" s="10">
-        <v>1687</v>
-      </c>
-      <c r="F137" s="11">
-        <v>900</v>
-      </c>
-      <c r="G137" s="7">
-        <f t="shared" si="7"/>
-        <v>1518300</v>
-      </c>
-      <c r="H137" s="15"/>
-    </row>
-    <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A138" s="8">
-        <v>6</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="10">
-        <v>434</v>
-      </c>
-      <c r="F138" s="11">
-        <v>1050</v>
-      </c>
-      <c r="G138" s="7">
-        <f t="shared" si="7"/>
-        <v>455700</v>
-      </c>
-      <c r="H138" s="15"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A139" s="8">
-        <v>7</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="10">
-        <v>860</v>
-      </c>
-      <c r="F139" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G139" s="7">
-        <f t="shared" si="7"/>
-        <v>1591000</v>
-      </c>
-      <c r="H139" s="15"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A140" s="8">
-        <v>8</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="10">
-        <v>1131</v>
-      </c>
-      <c r="F140" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G140" s="7">
-        <f t="shared" si="7"/>
-        <v>2092350</v>
-      </c>
-      <c r="H140" s="15"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A141" s="8">
-        <v>9</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" s="10">
-        <v>572</v>
-      </c>
-      <c r="F141" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G141" s="7">
-        <f t="shared" si="7"/>
-        <v>1144000</v>
-      </c>
-      <c r="H141" s="15"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A142" s="8">
-        <v>10</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="10">
-        <v>1189</v>
-      </c>
-      <c r="F142" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G142" s="7">
-        <f t="shared" si="7"/>
-        <v>2378000</v>
-      </c>
-      <c r="H142" s="15"/>
-    </row>
-    <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A143" s="8">
-        <v>11</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E143" s="10">
-        <v>614</v>
-      </c>
-      <c r="F143" s="11">
-        <v>1200</v>
-      </c>
-      <c r="G143" s="7">
-        <f t="shared" si="7"/>
-        <v>736800</v>
-      </c>
-      <c r="H143" s="15"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A144" s="8">
-        <v>12</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E144" s="10">
-        <v>4</v>
-      </c>
-      <c r="F144" s="11">
-        <v>5100</v>
-      </c>
-      <c r="G144" s="7">
-        <f t="shared" si="7"/>
-        <v>20400</v>
-      </c>
-      <c r="H144" s="15"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A145" s="8">
-        <v>13</v>
-      </c>
       <c r="B145" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="11">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H145" s="15"/>
     </row>
-    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="146" spans="1:8">
       <c r="A146" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E146" s="10">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E146" s="10"/>
       <c r="F146" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="7"/>
-        <v>50000</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H146" s="15"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="147" spans="1:8">
       <c r="A147" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>10</v>
@@ -4504,23 +4892,21 @@
         <v>11</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E147" s="10">
-        <v>899</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E147" s="10"/>
       <c r="F147" s="11">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="7"/>
-        <v>674250</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H147" s="15"/>
     </row>
-    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="148" spans="1:8">
       <c r="A148" s="8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>10</v>
@@ -4529,23 +4915,21 @@
         <v>11</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="10">
-        <v>964</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E148" s="10"/>
       <c r="F148" s="11">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="7"/>
-        <v>1349600</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H148" s="15"/>
     </row>
-    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="149" spans="1:8">
       <c r="A149" s="8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>10</v>
@@ -4554,23 +4938,21 @@
         <v>11</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="10">
-        <v>991</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E149" s="10"/>
       <c r="F149" s="11">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" ref="G149:G163" si="8">F149*E149</f>
-        <v>1387400</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H149" s="15"/>
     </row>
-    <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A150" s="13">
-        <v>18</v>
+    <row ht="16.5" r="150" spans="1:8">
+      <c r="A150" s="8">
+        <v>25</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>10</v>
@@ -4581,1375 +4963,159 @@
       <c r="D150" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E150" s="10">
-        <v>7</v>
-      </c>
+      <c r="E150" s="10"/>
       <c r="F150" s="11">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="8"/>
-        <v>22400</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H150" s="15"/>
     </row>
-    <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="151" spans="1:8">
       <c r="A151" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="11">
-        <v>750</v>
+        <v>1256</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H151" s="15"/>
     </row>
-    <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="152" spans="1:8">
       <c r="A152" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="11">
-        <v>1500</v>
+        <v>1257</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H152" s="15"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="153" spans="1:8">
       <c r="A153" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="11">
-        <v>1500</v>
+        <v>2550</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H153" s="15"/>
     </row>
-    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="154" spans="1:8">
       <c r="A154" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="11">
-        <v>3200</v>
+        <v>2550</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H154" s="15"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="155" spans="1:8">
       <c r="A155" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="11">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H155" s="15"/>
     </row>
-    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row hidden="true" ht="16.5" r="156" spans="1:8">
       <c r="A156" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E156" s="10"/>
-      <c r="F156" s="11">
-        <v>3000</v>
-      </c>
+      <c r="F156" s="11"/>
       <c r="G156" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H156" s="15"/>
     </row>
-    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A157" s="8">
-        <v>25</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="11">
-        <v>3400</v>
-      </c>
-      <c r="G157" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H157" s="15"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="8">
-        <v>26</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C158" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="11">
-        <v>240</v>
-      </c>
-      <c r="G158" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H158" s="15"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="8">
-        <v>27</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C159" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="11">
-        <v>240</v>
-      </c>
-      <c r="G159" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H159" s="15"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="8">
-        <v>28</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="11">
-        <v>2700</v>
-      </c>
-      <c r="G160" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H160" s="15"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="8">
-        <v>29</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="11">
-        <v>2700</v>
-      </c>
-      <c r="G161" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H161" s="15"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="8">
-        <v>30</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="11">
-        <v>3400</v>
-      </c>
-      <c r="G162" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H162" s="15"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="8">
-        <v>31</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="11">
-        <v>3400</v>
-      </c>
-      <c r="G163" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H163" s="15"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="14">
-        <f>SUM(E133:E163)</f>
-        <v>11677</v>
-      </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="14">
-        <f>SUM(G133:G163)</f>
-        <v>15275300</v>
-      </c>
-      <c r="H164" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G165" s="22">
-        <f>G164-H164</f>
-        <v>15275300</v>
-      </c>
-      <c r="H165" s="15"/>
-    </row>
-    <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="41"/>
-      <c r="G166" s="40"/>
-      <c r="H166" s="49"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B167" s="39"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="41"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="15"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B168" s="39"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="42"/>
-      <c r="H168" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B169" s="34"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B170" s="52"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="5"/>
-    </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="53"/>
-      <c r="H171" s="55"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C174" s="47"/>
-      <c r="D174" s="47"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="47"/>
-    </row>
-    <row r="175" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A176" s="8">
-        <v>1</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="10">
-        <v>575</v>
-      </c>
-      <c r="F176" s="11">
-        <v>1300</v>
-      </c>
-      <c r="G176" s="7">
-        <f t="shared" ref="G176:G189" si="9">F176*E176</f>
-        <v>747500</v>
-      </c>
-      <c r="H176" s="15"/>
-    </row>
-    <row r="177" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A177" s="8">
-        <v>2</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E177" s="10">
-        <v>630</v>
-      </c>
-      <c r="F177" s="11">
-        <v>1300</v>
-      </c>
-      <c r="G177" s="7">
-        <f t="shared" si="9"/>
-        <v>819000</v>
-      </c>
-      <c r="H177" s="15"/>
-    </row>
-    <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A178" s="8">
-        <v>3</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="10">
-        <v>700</v>
-      </c>
-      <c r="F178" s="11">
-        <v>200</v>
-      </c>
-      <c r="G178" s="7">
-        <f t="shared" si="9"/>
-        <v>140000</v>
-      </c>
-      <c r="H178" s="15"/>
-    </row>
-    <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A179" s="8">
-        <v>4</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="10">
-        <v>200</v>
-      </c>
-      <c r="F179" s="11">
-        <v>150</v>
-      </c>
-      <c r="G179" s="7">
-        <f t="shared" si="9"/>
-        <v>30000</v>
-      </c>
-      <c r="H179" s="15"/>
-    </row>
-    <row r="180" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A180" s="8">
-        <v>5</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" s="10">
-        <v>910</v>
-      </c>
-      <c r="F180" s="11">
-        <v>900</v>
-      </c>
-      <c r="G180" s="7">
-        <f t="shared" si="9"/>
-        <v>819000</v>
-      </c>
-      <c r="H180" s="15"/>
-    </row>
-    <row r="181" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A181" s="8">
-        <v>6</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="10">
-        <v>245</v>
-      </c>
-      <c r="F181" s="11">
-        <v>1100</v>
-      </c>
-      <c r="G181" s="7">
-        <f t="shared" si="9"/>
-        <v>269500</v>
-      </c>
-      <c r="H181" s="15"/>
-    </row>
-    <row r="182" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A182" s="8">
-        <v>7</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="10">
-        <v>200</v>
-      </c>
-      <c r="F182" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G182" s="7">
-        <f t="shared" si="9"/>
-        <v>370000</v>
-      </c>
-      <c r="H182" s="15"/>
-    </row>
-    <row r="183" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A183" s="8">
-        <v>8</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E183" s="10">
-        <v>340</v>
-      </c>
-      <c r="F183" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G183" s="7">
-        <f t="shared" si="9"/>
-        <v>629000</v>
-      </c>
-      <c r="H183" s="15"/>
-    </row>
-    <row r="184" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A184" s="8">
-        <v>9</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E184" s="10">
-        <v>340</v>
-      </c>
-      <c r="F184" s="11">
-        <v>2100</v>
-      </c>
-      <c r="G184" s="7">
-        <f t="shared" si="9"/>
-        <v>714000</v>
-      </c>
-      <c r="H184" s="15"/>
-    </row>
-    <row r="185" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A185" s="8">
-        <v>10</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E185" s="10">
-        <v>850</v>
-      </c>
-      <c r="F185" s="11">
-        <v>2100</v>
-      </c>
-      <c r="G185" s="7">
-        <f t="shared" si="9"/>
-        <v>1785000</v>
-      </c>
-      <c r="H185" s="15"/>
-    </row>
-    <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A186" s="8">
-        <v>11</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E186" s="10">
-        <v>700</v>
-      </c>
-      <c r="F186" s="11">
-        <v>1200</v>
-      </c>
-      <c r="G186" s="7">
-        <f t="shared" si="9"/>
-        <v>840000</v>
-      </c>
-      <c r="H186" s="15"/>
-    </row>
-    <row r="187" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A187" s="8">
-        <v>12</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="11">
-        <v>311</v>
-      </c>
-      <c r="G187" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H187" s="15"/>
-    </row>
-    <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A188" s="8">
-        <v>13</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="11">
-        <v>312</v>
-      </c>
-      <c r="G188" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H188" s="15"/>
-    </row>
-    <row r="189" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A189" s="8">
-        <v>14</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E189" s="10">
-        <v>50</v>
-      </c>
-      <c r="F189" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G189" s="7">
-        <f t="shared" si="9"/>
-        <v>50000</v>
-      </c>
-      <c r="H189" s="15"/>
-    </row>
-    <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A190" s="8">
-        <v>15</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" s="10">
-        <v>360</v>
-      </c>
-      <c r="F190" s="11">
-        <v>750</v>
-      </c>
-      <c r="G190" s="7">
-        <f t="shared" ref="G190:G206" si="10">F190*E190</f>
-        <v>270000</v>
-      </c>
-      <c r="H190" s="15"/>
-    </row>
-    <row r="191" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A191" s="8">
-        <v>16</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E191" s="10">
-        <v>10</v>
-      </c>
-      <c r="F191" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G191" s="7">
-        <f t="shared" si="10"/>
-        <v>13500</v>
-      </c>
-      <c r="H191" s="15"/>
-    </row>
-    <row r="192" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A192" s="8">
-        <v>17</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="10">
-        <v>90</v>
-      </c>
-      <c r="F192" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G192" s="7">
-        <f t="shared" si="10"/>
-        <v>121500</v>
-      </c>
-      <c r="H192" s="15"/>
-    </row>
-    <row r="193" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A193" s="13">
-        <v>18</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E193" s="10"/>
-      <c r="F193" s="11">
-        <v>1300</v>
-      </c>
-      <c r="G193" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H193" s="15"/>
-    </row>
-    <row r="194" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A194" s="8">
-        <v>19</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G194" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H194" s="15"/>
-    </row>
-    <row r="195" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A195" s="8">
-        <v>20</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G195" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H195" s="15"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A196" s="8">
-        <v>21</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="11">
-        <v>750</v>
-      </c>
-      <c r="G196" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H196" s="15"/>
-    </row>
-    <row r="197" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A197" s="8">
-        <v>22</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G197" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H197" s="15"/>
-    </row>
-    <row r="198" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A198" s="8">
-        <v>23</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G198" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H198" s="15"/>
-    </row>
-    <row r="199" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A199" s="8">
-        <v>24</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E199" s="10"/>
-      <c r="F199" s="11">
-        <v>2700</v>
-      </c>
-      <c r="G199" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H199" s="15"/>
-    </row>
-    <row r="200" spans="1:8" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A200" s="8">
-        <v>25</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="11">
-        <v>2900</v>
-      </c>
-      <c r="G200" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H200" s="15"/>
-    </row>
-    <row r="201" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="8">
-        <v>26</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C201" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E201" s="10"/>
-      <c r="F201" s="11">
-        <v>1256</v>
-      </c>
-      <c r="G201" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H201" s="15"/>
-    </row>
-    <row r="202" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="8">
-        <v>27</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E202" s="10"/>
-      <c r="F202" s="11">
-        <v>1257</v>
-      </c>
-      <c r="G202" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H202" s="15"/>
-    </row>
-    <row r="203" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="8">
-        <v>28</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="11">
-        <v>2550</v>
-      </c>
-      <c r="G203" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H203" s="15"/>
-    </row>
-    <row r="204" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="8">
-        <v>29</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="11">
-        <v>2550</v>
-      </c>
-      <c r="G204" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H204" s="15"/>
-    </row>
-    <row r="205" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="8">
-        <v>30</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E205" s="10"/>
-      <c r="F205" s="11">
-        <v>2900</v>
-      </c>
-      <c r="G205" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H205" s="15"/>
-    </row>
-    <row r="206" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="8">
-        <v>31</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E206" s="10"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H206" s="15"/>
-    </row>
-    <row r="207" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="14">
-        <f>SUM(E176:E206)</f>
-        <v>6200</v>
-      </c>
-      <c r="F207" s="6"/>
-      <c r="G207" s="14">
-        <f>SUM(G176:G206)</f>
-        <v>7618000</v>
-      </c>
-      <c r="H207" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G208" s="22">
-        <f>G207-H207</f>
-        <v>7618000</v>
-      </c>
-      <c r="H208" s="15"/>
-    </row>
-    <row r="209" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" s="40"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="41"/>
-      <c r="F209" s="41"/>
-      <c r="G209" s="40"/>
-      <c r="H209" s="49"/>
-    </row>
-    <row r="210" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B210" s="39"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="41"/>
-      <c r="F210" s="41"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="15"/>
-    </row>
-    <row r="211" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B211" s="39"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40"/>
-      <c r="E211" s="41"/>
-      <c r="F211" s="41"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B212" s="34"/>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="36"/>
-      <c r="F212" s="36"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="5"/>
-    </row>
-    <row r="213" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B213" s="52"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="35"/>
-      <c r="E213" s="36"/>
-      <c r="F213" s="36"/>
-      <c r="G213" s="37"/>
-      <c r="H213" s="5"/>
-    </row>
-    <row r="214" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B214" s="52"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="53"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="53"/>
-      <c r="H214" s="55"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D221" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E221" s="4">
-        <f>E78+E35+E122+E164+E207</f>
-        <v>42213</v>
-      </c>
-      <c r="G221" s="4">
-        <f>G78+G35+G122+G164+G207</f>
-        <v>51686200</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I42"/>
-  <mergeCells count="36">
-    <mergeCell ref="A209:H209"/>
-    <mergeCell ref="B210:G210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B214:H214"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
+  <autoFilter ref="A1:I32"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="124">
   <si>
     <t>2019.08.16</t>
   </si>
@@ -396,6 +396,9 @@
   <si>
     <t xml:space="preserve">中国农业银行股份有限公司南海分行 44501001040045983
 </t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1228,20 +1231,36 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="16" r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10">
+        <v>484</v>
+      </c>
+      <c r="F1" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G1" s="7">
+        <f t="shared" ref="G4:G25" si="0">F4*E4</f>
+        <v>605000</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="2" spans="1:10">
       <c r="A2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1250,118 +1269,110 @@
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="F2" s="11">
         <v>1250</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G4:G25" si="0">F4*E4</f>
-        <v>605000</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="23">
-        <f>E4+E47+E91+E133+E176</f>
-        <v>3080</v>
-      </c>
-      <c r="J2" s="24"/>
+        <f t="shared" si="0"/>
+        <v>557500</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="3" spans="1:10">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="10">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="F3" s="11">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>557500</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="23">
-        <f t="shared" ref="I5:I34" si="1">E5+E48+E92+E134+E177</f>
-        <v>3037</v>
-      </c>
-      <c r="J3" s="24"/>
+        <v>116400</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="4" spans="1:10">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10">
-        <v>582</v>
+        <v>100</v>
       </c>
       <c r="F4" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>116400</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="23">
-        <f t="shared" si="1"/>
-        <v>3979</v>
-      </c>
-      <c r="J4" s="24"/>
+        <v>15000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="5" spans="1:10">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10">
-        <v>100</v>
+        <v>1010</v>
       </c>
       <c r="F5" s="11">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="23">
-        <f t="shared" si="1"/>
-        <v>1102</v>
-      </c>
-      <c r="J5" s="24"/>
+        <v>909000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="6" spans="1:10">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1370,28 +1381,26 @@
         <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10">
-        <v>1010</v>
+        <v>290</v>
       </c>
       <c r="F6" s="11">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>909000</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="23">
-        <f t="shared" si="1"/>
-        <v>6460</v>
-      </c>
-      <c r="J6" s="24"/>
+        <v>319000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="7" spans="1:10">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1400,28 +1409,26 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="F7" s="11">
-        <v>1100</v>
+        <v>1850</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>319000</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="23">
-        <f t="shared" si="1"/>
-        <v>1674</v>
-      </c>
-      <c r="J7" s="24"/>
+        <v>610500</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="8" spans="1:10">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1430,28 +1437,26 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="F8" s="11">
         <v>1850</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>610500</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="23">
-        <f t="shared" si="1"/>
-        <v>1976</v>
-      </c>
-      <c r="J8" s="24"/>
+        <v>503200</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="9" spans="1:10">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1459,59 +1464,55 @@
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="10">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F9" s="11">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>503200</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="23">
-        <f t="shared" si="1"/>
-        <v>2405</v>
-      </c>
-      <c r="J9" s="24"/>
+        <v>561700</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="10" spans="1:10">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
+      <c r="C10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="10">
-        <v>274</v>
+        <v>551</v>
       </c>
       <c r="F10" s="11">
         <v>2050</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>561700</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="23">
-        <f t="shared" si="1"/>
-        <v>2096</v>
-      </c>
-      <c r="J10" s="24"/>
+        <v>1129550</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="11" spans="1:10">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1520,28 +1521,26 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="10">
-        <v>551</v>
+        <v>945</v>
       </c>
       <c r="F11" s="11">
-        <v>2050</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>1129550</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="23">
-        <f t="shared" si="1"/>
-        <v>4994</v>
-      </c>
-      <c r="J11" s="24"/>
+        <v>1134000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="12" spans="1:10">
       <c r="A12" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1550,114 +1549,106 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10">
-        <v>945</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="11">
-        <v>1200</v>
+        <v>1159</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>1134000</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="23">
-        <f t="shared" si="1"/>
-        <v>4610</v>
-      </c>
-      <c r="J12" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="13" spans="1:10">
       <c r="A13" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="23">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="J13" s="24"/>
+      <c r="H13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="14" spans="1:10">
       <c r="A14" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="10">
+        <v>30</v>
+      </c>
       <c r="F14" s="11">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23">
-        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="15" spans="1:10">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="10">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="F15" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="24">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="J15" s="24"/>
+        <v>206250</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="16" spans="1:10">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1666,28 +1657,26 @@
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="10">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="F16" s="11">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>206250</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="23">
-        <f t="shared" si="1"/>
-        <v>3840</v>
-      </c>
-      <c r="J16" s="24"/>
+        <v>13000</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="17" spans="1:10">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -1696,142 +1685,130 @@
         <v>11</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F17" s="11">
         <v>1300</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="23">
-        <f t="shared" si="1"/>
-        <v>1061</v>
-      </c>
-      <c r="J17" s="24"/>
+        <v>78000</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="18" spans="1:10">
-      <c r="A18" s="8">
-        <v>17</v>
+      <c r="A18" s="13">
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="10">
-        <v>60</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="11">
         <v>1300</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>78000</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="23">
-        <f t="shared" si="1"/>
-        <v>1544</v>
-      </c>
-      <c r="J18" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="19" spans="1:10">
-      <c r="A19" s="13">
-        <v>18</v>
+      <c r="A19" s="8">
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="23">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J19" s="24"/>
+      <c r="H19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="20" spans="1:10">
       <c r="A20" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="24"/>
+      <c r="H20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="21" spans="1:10">
       <c r="A21" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="24"/>
+      <c r="H21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="22" spans="1:10">
       <c r="A22" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1840,26 +1817,24 @@
         <v>11</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24"/>
+      <c r="H22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="23" spans="1:10">
       <c r="A23" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1868,26 +1843,24 @@
         <v>11</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11">
         <v>1300</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24"/>
+        <f t="shared" ref="G26:G34" si="2">F26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="24" spans="1:10">
       <c r="A24" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1896,26 +1869,24 @@
         <v>11</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11">
-        <v>1300</v>
+        <v>2750</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ref="G26:G34" si="2">F26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="25" spans="1:10">
       <c r="A25" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1928,50 +1899,46 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="24"/>
+      <c r="H25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24"/>
     </row>
     <row customHeight="true" ht="16" r="26" spans="1:10">
       <c r="A26" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11">
-        <v>3000</v>
+        <v>1306</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="27" spans="1:10">
+      <c r="H26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="27" spans="1:10">
       <c r="A27" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>37</v>
@@ -1980,54 +1947,50 @@
         <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="28" spans="1:10">
+      <c r="H27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="28" spans="1:10">
       <c r="A28" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11">
-        <v>1307</v>
+        <v>2700</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="29" spans="1:10">
+      <c r="H28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="29" spans="1:10">
       <c r="A29" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2036,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11">
@@ -2046,16 +2009,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="30" spans="1:10">
+      <c r="H29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="30" spans="1:10">
       <c r="A30" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>10</v>
@@ -2064,26 +2025,24 @@
         <v>11</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="31" spans="1:10">
+      <c r="H30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="31" spans="1:10">
       <c r="A31" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>10</v>
@@ -2092,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11">
@@ -2102,44 +2061,41 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="32" spans="1:10">
+      <c r="H31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row customHeight="true" ht="16" r="32" spans="1:10">
       <c r="A32" s="8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="10">
+        <v>530</v>
+      </c>
       <c r="F32" s="11">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="24"/>
+        <v>1250</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" ref="G47:G65" si="3">F47*E47</f>
+        <v>662500</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="33" spans="1:10">
       <c r="A33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>10</v>
@@ -2148,98 +2104,106 @@
         <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="10">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F33" s="11">
         <v>1250</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" ref="G47:G65" si="3">F47*E47</f>
-        <v>662500</v>
-      </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row customHeight="true" ht="16" r="34" spans="1:10">
+        <f t="shared" si="3"/>
+        <v>643750</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="16" r="34" spans="1:8">
       <c r="A34" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34" s="10">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="F34" s="11">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="3"/>
-        <v>643750</v>
-      </c>
-      <c r="H34" s="15"/>
+        <v>80000</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="35" spans="1:8">
       <c r="A35" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35" s="10">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="F35" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="3"/>
-        <v>80000</v>
-      </c>
-      <c r="H35" s="15"/>
+        <v>24000</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="36" spans="1:8">
       <c r="A36" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="10">
-        <v>160</v>
+        <v>925</v>
       </c>
       <c r="F36" s="11">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="3"/>
-        <v>24000</v>
-      </c>
-      <c r="H36" s="15"/>
+        <v>832500</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="37" spans="1:8">
       <c r="A37" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -2248,23 +2212,25 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="10">
-        <v>925</v>
+        <v>283</v>
       </c>
       <c r="F37" s="11">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="3"/>
-        <v>832500</v>
-      </c>
-      <c r="H37" s="15"/>
+        <v>283000</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="38" spans="1:8">
       <c r="A38" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>10</v>
@@ -2273,23 +2239,25 @@
         <v>11</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="10">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="F38" s="11">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="3"/>
-        <v>283000</v>
-      </c>
-      <c r="H38" s="15"/>
+        <v>270000</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="39" spans="1:8">
       <c r="A39" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -2298,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" s="10">
         <v>150</v>
@@ -2310,11 +2278,13 @@
         <f t="shared" si="3"/>
         <v>270000</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="40" spans="1:8">
       <c r="A40" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -2322,24 +2292,26 @@
       <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>23</v>
+      <c r="D40" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E40" s="10">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="F40" s="11">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="G40" s="22">
         <f t="shared" si="3"/>
-        <v>270000</v>
-      </c>
-      <c r="H40" s="15"/>
+        <v>391950</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="41" spans="1:8">
       <c r="A41" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>10</v>
@@ -2347,24 +2319,26 @@
       <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>24</v>
+      <c r="D41" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E41" s="10">
-        <v>201</v>
+        <v>700</v>
       </c>
       <c r="F41" s="11">
         <v>1950</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="3"/>
-        <v>391950</v>
-      </c>
-      <c r="H41" s="15"/>
+        <v>1365000</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="42" spans="1:8">
       <c r="A42" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>10</v>
@@ -2373,23 +2347,25 @@
         <v>11</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" s="10">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="F42" s="11">
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="G42" s="22">
         <f t="shared" si="3"/>
-        <v>1365000</v>
-      </c>
-      <c r="H42" s="15"/>
+        <v>1098000</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="43" spans="1:8">
       <c r="A43" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>10</v>
@@ -2398,94 +2374,102 @@
         <v>11</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" s="10">
-        <v>915</v>
+        <v>49</v>
       </c>
       <c r="F43" s="11">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="3"/>
-        <v>1098000</v>
-      </c>
-      <c r="H43" s="15"/>
+        <v>220500</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="44" spans="1:8">
       <c r="A44" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="10">
-        <v>49</v>
-      </c>
+      <c r="D44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="11">
-        <v>4500</v>
+        <v>410</v>
       </c>
       <c r="G44" s="22">
         <f t="shared" si="3"/>
-        <v>220500</v>
-      </c>
-      <c r="H44" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="45" spans="1:8">
       <c r="A45" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="11">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G45" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="46" spans="1:8">
       <c r="A46" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E46" s="10">
+        <v>414</v>
+      </c>
       <c r="F46" s="11">
-        <v>411</v>
+        <v>750</v>
       </c>
       <c r="G46" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="15"/>
+        <v>310500</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="47" spans="1:8">
       <c r="A47" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>10</v>
@@ -2494,23 +2478,23 @@
         <v>11</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="10">
-        <v>414</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="11">
-        <v>750</v>
+        <v>413</v>
       </c>
       <c r="G47" s="22">
         <f t="shared" si="3"/>
-        <v>310500</v>
-      </c>
-      <c r="H47" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="48" spans="1:8">
       <c r="A48" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -2519,21 +2503,25 @@
         <v>11</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E48" s="10">
+        <v>5</v>
+      </c>
       <c r="F48" s="11">
-        <v>413</v>
+        <v>1350</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="15"/>
+        <v>6750</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="49" spans="1:8">
-      <c r="A49" s="8">
-        <v>17</v>
+      <c r="A49" s="13">
+        <v>18</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>10</v>
@@ -2542,92 +2530,98 @@
         <v>11</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="10">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="11">
-        <v>1350</v>
+        <v>3050</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="3"/>
-        <v>6750</v>
-      </c>
-      <c r="H49" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="50" spans="1:8">
-      <c r="A50" s="13">
-        <v>18</v>
+      <c r="A50" s="8">
+        <v>19</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="11">
-        <v>3050</v>
+        <v>3500</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="51" spans="1:8">
       <c r="A51" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="11">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G51" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="15"/>
+        <f t="shared" ref="G66:G77" si="4">F66*E66</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="52" spans="1:8">
       <c r="A52" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" ref="G66:G77" si="4">F66*E66</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="15"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="53" spans="1:8">
       <c r="A53" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -2636,21 +2630,23 @@
         <v>11</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="11">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="54" spans="1:8">
       <c r="A54" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -2659,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="11">
@@ -2669,11 +2665,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="55" spans="1:8">
       <c r="A55" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>10</v>
@@ -2682,21 +2680,23 @@
         <v>11</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="11">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="G55" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" ht="16" r="56" spans="1:8">
       <c r="A56" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
@@ -2709,40 +2709,44 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="11">
-        <v>2650</v>
+        <v>2250</v>
       </c>
       <c r="G56" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row customHeight="true" ht="16" r="57" spans="1:8">
+      <c r="H56" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="true" hidden="true" ht="16" r="57" spans="1:8">
       <c r="A57" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="11">
-        <v>2250</v>
+        <v>240</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H57" s="15"/>
+      <c r="H57" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="16" r="58" spans="1:8">
       <c r="A58" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>37</v>
@@ -2751,7 +2755,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="11">
@@ -2761,34 +2765,38 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="16" r="59" spans="1:8">
       <c r="A59" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="11">
-        <v>240</v>
+        <v>2600</v>
       </c>
       <c r="G59" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="16" r="60" spans="1:8">
       <c r="A60" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -2797,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="11">
@@ -2807,11 +2815,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="16" r="61" spans="1:8">
       <c r="A61" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>10</v>
@@ -2820,7 +2830,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="11">
@@ -2830,11 +2840,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customHeight="true" hidden="true" ht="16" r="62" spans="1:8">
       <c r="A62" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>10</v>
@@ -2843,42 +2855,48 @@
         <v>11</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="11">
-        <v>2600</v>
-      </c>
+      <c r="F62" s="11"/>
       <c r="G62" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H62" s="15"/>
-    </row>
-    <row customHeight="true" hidden="true" ht="16" r="63" spans="1:8">
+      <c r="H62" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="16.5" r="63" spans="1:8">
       <c r="A63" s="8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="15"/>
+      <c r="C63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="10">
+        <v>875</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" ref="G91:G106" si="5">F91*E91</f>
+        <v>1137500</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="64" spans="1:8">
       <c r="A64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -2887,98 +2905,106 @@
         <v>11</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="10">
-        <v>875</v>
+        <v>718</v>
       </c>
       <c r="F64" s="11">
         <v>1300</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" ref="G91:G106" si="5">F91*E91</f>
-        <v>1137500</v>
-      </c>
-      <c r="H64" s="15"/>
+        <f t="shared" si="5"/>
+        <v>933400</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="65" spans="1:8">
       <c r="A65" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E65" s="10">
-        <v>718</v>
+        <v>1588</v>
       </c>
       <c r="F65" s="11">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="5"/>
-        <v>933400</v>
-      </c>
-      <c r="H65" s="15"/>
+        <v>317600</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="66" spans="1:8">
       <c r="A66" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66" s="10">
-        <v>1588</v>
+        <v>420</v>
       </c>
       <c r="F66" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="5"/>
-        <v>317600</v>
-      </c>
-      <c r="H66" s="15"/>
+        <v>63000</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="67" spans="1:8">
       <c r="A67" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="10">
-        <v>420</v>
+        <v>1928</v>
       </c>
       <c r="F67" s="11">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="5"/>
-        <v>63000</v>
-      </c>
-      <c r="H67" s="15"/>
+        <v>1735200</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="68" spans="1:8">
       <c r="A68" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>10</v>
@@ -2987,23 +3013,25 @@
         <v>11</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E68" s="10">
-        <v>1928</v>
+        <v>422</v>
       </c>
       <c r="F68" s="11">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="5"/>
-        <v>1735200</v>
-      </c>
-      <c r="H68" s="15"/>
+        <v>443100</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="69" spans="1:8">
       <c r="A69" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>10</v>
@@ -3012,23 +3040,25 @@
         <v>11</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" s="10">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F69" s="11">
-        <v>1050</v>
+        <v>1900</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="5"/>
-        <v>443100</v>
-      </c>
-      <c r="H69" s="15"/>
+        <v>828400</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="70" spans="1:8">
       <c r="A70" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>10</v>
@@ -3037,23 +3067,25 @@
         <v>11</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E70" s="10">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="F70" s="11">
         <v>1900</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="5"/>
-        <v>828400</v>
-      </c>
-      <c r="H70" s="15"/>
+        <v>972800</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="71" spans="1:8">
       <c r="A71" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>10</v>
@@ -3061,24 +3093,26 @@
       <c r="C71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>23</v>
+      <c r="D71" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E71" s="10">
-        <v>512</v>
+        <v>709</v>
       </c>
       <c r="F71" s="11">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="5"/>
-        <v>972800</v>
-      </c>
-      <c r="H71" s="15"/>
+        <v>1488900</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="72" spans="1:8">
       <c r="A72" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>10</v>
@@ -3086,24 +3120,26 @@
       <c r="C72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>24</v>
+      <c r="D72" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E72" s="10">
-        <v>709</v>
+        <v>1704</v>
       </c>
       <c r="F72" s="11">
         <v>2100</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="5"/>
-        <v>1488900</v>
-      </c>
-      <c r="H72" s="15"/>
+        <v>3578400</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="73" spans="1:8">
       <c r="A73" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>10</v>
@@ -3112,23 +3148,25 @@
         <v>11</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E73" s="10">
-        <v>1704</v>
+        <v>1436</v>
       </c>
       <c r="F73" s="11">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="5"/>
-        <v>3578400</v>
-      </c>
-      <c r="H73" s="15"/>
+        <v>1723200</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="74" spans="1:8">
       <c r="A74" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
@@ -3137,96 +3175,104 @@
         <v>11</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="10">
-        <v>1436</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E74" s="10"/>
       <c r="F74" s="11">
-        <v>1200</v>
+        <v>1611</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>1723200</v>
-      </c>
-      <c r="H74" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="75" spans="1:8">
       <c r="A75" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="10"/>
+      <c r="D75" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="10">
+        <v>2</v>
+      </c>
       <c r="F75" s="11">
-        <v>1611</v>
+        <v>3500</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="15"/>
+        <v>7000</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="76" spans="1:8">
       <c r="A76" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E76" s="10">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="F76" s="11">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
-      <c r="H76" s="15"/>
+        <v>163000</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="77" spans="1:8">
       <c r="A77" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E77" s="10">
-        <v>163</v>
+        <v>1892</v>
       </c>
       <c r="F77" s="11">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="5"/>
-        <v>163000</v>
-      </c>
-      <c r="H77" s="15"/>
+        <v>1513600</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="78" spans="1:8">
       <c r="A78" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>10</v>
@@ -3235,23 +3281,25 @@
         <v>11</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E78" s="10">
-        <v>1892</v>
+        <v>77</v>
       </c>
       <c r="F78" s="11">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="5"/>
-        <v>1513600</v>
-      </c>
-      <c r="H78" s="15"/>
+        <v>103950</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="79" spans="1:8">
       <c r="A79" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>10</v>
@@ -3260,117 +3308,125 @@
         <v>11</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E79" s="10">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="F79" s="11">
         <v>1350</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="5"/>
-        <v>103950</v>
-      </c>
-      <c r="H79" s="15"/>
-    </row>
-    <row ht="16.5" r="80" spans="1:8">
-      <c r="A80" s="8">
-        <v>17</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="10">
-        <v>398</v>
-      </c>
-      <c r="F80" s="11">
-        <v>1350</v>
-      </c>
-      <c r="G80" s="7">
         <f t="shared" ref="G107:G121" si="6">F107*E107</f>
         <v>537300</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H79" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="16.5" r="80" spans="1:8">
+      <c r="A80" s="13">
+        <v>18</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="81" spans="1:8">
-      <c r="A81" s="13">
-        <v>18</v>
+      <c r="A81" s="8">
+        <v>19</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="11">
-        <v>3050</v>
+        <v>3500</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="82" spans="1:8">
       <c r="A82" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="11">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="83" spans="1:8">
       <c r="A83" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="11">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H83" s="15"/>
+      <c r="H83" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="84" spans="1:8">
       <c r="A84" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>10</v>
@@ -3379,21 +3435,23 @@
         <v>11</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="11">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H84" s="15"/>
+      <c r="H84" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="85" spans="1:8">
       <c r="A85" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>10</v>
@@ -3402,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="11">
@@ -3412,11 +3470,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H85" s="15"/>
+      <c r="H85" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="86" spans="1:8">
       <c r="A86" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>10</v>
@@ -3425,21 +3485,23 @@
         <v>11</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="11">
-        <v>1350</v>
+        <v>3200</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H86" s="15"/>
+      <c r="H86" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="16.5" r="87" spans="1:8">
       <c r="A87" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>10</v>
@@ -3452,40 +3514,44 @@
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="11">
-        <v>3200</v>
+        <v>3050</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H87" s="15"/>
-    </row>
-    <row ht="16.5" r="88" spans="1:8">
+      <c r="H87" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row hidden="true" ht="16.5" r="88" spans="1:8">
       <c r="A88" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="11">
-        <v>3050</v>
+        <v>240</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H88" s="15"/>
+      <c r="H88" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="89" spans="1:8">
       <c r="A89" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>37</v>
@@ -3494,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="11">
@@ -3504,34 +3570,38 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H89" s="15"/>
+      <c r="H89" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="90" spans="1:8">
       <c r="A90" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="11">
-        <v>240</v>
+        <v>2700</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H90" s="15"/>
+      <c r="H90" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="91" spans="1:8">
       <c r="A91" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>10</v>
@@ -3540,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="11">
@@ -3550,11 +3620,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H91" s="15"/>
+      <c r="H91" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="92" spans="1:8">
       <c r="A92" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>10</v>
@@ -3563,21 +3635,23 @@
         <v>11</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="11">
-        <v>2700</v>
+        <v>3050</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H92" s="15"/>
+      <c r="H92" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="93" spans="1:8">
       <c r="A93" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>10</v>
@@ -3586,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="11">
@@ -3596,34 +3670,40 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H93" s="15"/>
-    </row>
-    <row hidden="true" ht="16.5" r="94" spans="1:8">
+      <c r="H93" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="16.5" r="94" spans="1:8">
       <c r="A94" s="8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="10"/>
+      <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="10">
+        <v>616</v>
+      </c>
       <c r="F94" s="11">
-        <v>3050</v>
+        <v>1250</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="15"/>
+        <f t="shared" ref="G133:G148" si="7">F133*E133</f>
+        <v>770000</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="95" spans="1:8">
       <c r="A95" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>10</v>
@@ -3632,98 +3712,106 @@
         <v>11</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" s="10">
-        <v>616</v>
+        <v>728</v>
       </c>
       <c r="F95" s="11">
         <v>1250</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" ref="G133:G148" si="7">F133*E133</f>
-        <v>770000</v>
-      </c>
-      <c r="H95" s="15"/>
+        <f t="shared" si="7"/>
+        <v>910000</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="96" spans="1:8">
       <c r="A96" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E96" s="10">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="F96" s="11">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>910000</v>
-      </c>
-      <c r="H96" s="15"/>
+        <v>141800</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="97" spans="1:8">
       <c r="A97" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E97" s="10">
-        <v>709</v>
+        <v>222</v>
       </c>
       <c r="F97" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>141800</v>
-      </c>
-      <c r="H97" s="15"/>
+        <v>33300</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="98" spans="1:8">
       <c r="A98" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E98" s="10">
-        <v>222</v>
+        <v>1687</v>
       </c>
       <c r="F98" s="11">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>33300</v>
-      </c>
-      <c r="H98" s="15"/>
+        <v>1518300</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="99" spans="1:8">
       <c r="A99" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>10</v>
@@ -3732,23 +3820,25 @@
         <v>11</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E99" s="10">
-        <v>1687</v>
+        <v>434</v>
       </c>
       <c r="F99" s="11">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>1518300</v>
-      </c>
-      <c r="H99" s="15"/>
+        <v>455700</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="100" spans="1:8">
       <c r="A100" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>10</v>
@@ -3757,23 +3847,25 @@
         <v>11</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E100" s="10">
-        <v>434</v>
+        <v>860</v>
       </c>
       <c r="F100" s="11">
-        <v>1050</v>
+        <v>1850</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
-        <v>455700</v>
-      </c>
-      <c r="H100" s="15"/>
+        <v>1591000</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="101" spans="1:8">
       <c r="A101" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>10</v>
@@ -3782,23 +3874,25 @@
         <v>11</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E101" s="10">
-        <v>860</v>
+        <v>1131</v>
       </c>
       <c r="F101" s="11">
         <v>1850</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>1591000</v>
-      </c>
-      <c r="H101" s="15"/>
+        <v>2092350</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="102" spans="1:8">
       <c r="A102" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>10</v>
@@ -3806,24 +3900,26 @@
       <c r="C102" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>23</v>
+      <c r="D102" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E102" s="10">
-        <v>1131</v>
+        <v>572</v>
       </c>
       <c r="F102" s="11">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>2092350</v>
-      </c>
-      <c r="H102" s="15"/>
+        <v>1144000</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="103" spans="1:8">
       <c r="A103" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>10</v>
@@ -3831,24 +3927,26 @@
       <c r="C103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>24</v>
+      <c r="D103" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E103" s="10">
-        <v>572</v>
+        <v>1189</v>
       </c>
       <c r="F103" s="11">
         <v>2000</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="7"/>
-        <v>1144000</v>
-      </c>
-      <c r="H103" s="15"/>
+        <v>2378000</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="104" spans="1:8">
       <c r="A104" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>10</v>
@@ -3857,23 +3955,25 @@
         <v>11</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E104" s="10">
-        <v>1189</v>
+        <v>614</v>
       </c>
       <c r="F104" s="11">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="7"/>
-        <v>2378000</v>
-      </c>
-      <c r="H104" s="15"/>
+        <v>736800</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="105" spans="1:8">
       <c r="A105" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>10</v>
@@ -3882,96 +3982,104 @@
         <v>11</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105" s="10">
-        <v>614</v>
+        <v>4</v>
       </c>
       <c r="F105" s="11">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="7"/>
-        <v>736800</v>
-      </c>
-      <c r="H105" s="15"/>
+        <v>20400</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="106" spans="1:8">
       <c r="A106" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="10">
-        <v>4</v>
-      </c>
+      <c r="D106" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="10"/>
       <c r="F106" s="11">
-        <v>5100</v>
+        <v>1360</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="7"/>
-        <v>20400</v>
-      </c>
-      <c r="H106" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="107" spans="1:8">
       <c r="A107" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E107" s="10">
+        <v>50</v>
+      </c>
       <c r="F107" s="11">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="15"/>
+        <v>50000</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="108" spans="1:8">
       <c r="A108" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E108" s="10">
-        <v>50</v>
+        <v>899</v>
       </c>
       <c r="F108" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G108" s="7">
         <f t="shared" si="7"/>
-        <v>50000</v>
-      </c>
-      <c r="H108" s="15"/>
+        <v>674250</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="109" spans="1:8">
       <c r="A109" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>10</v>
@@ -3980,23 +4088,25 @@
         <v>11</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E109" s="10">
-        <v>899</v>
+        <v>964</v>
       </c>
       <c r="F109" s="11">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="7"/>
-        <v>674250</v>
-      </c>
-      <c r="H109" s="15"/>
+        <v>1349600</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="110" spans="1:8">
       <c r="A110" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>10</v>
@@ -4005,105 +4115,111 @@
         <v>11</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E110" s="10">
-        <v>964</v>
+        <v>991</v>
       </c>
       <c r="F110" s="11">
         <v>1400</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="7"/>
-        <v>1349600</v>
-      </c>
-      <c r="H110" s="15"/>
-    </row>
-    <row ht="16.5" r="111" spans="1:8">
-      <c r="A111" s="8">
-        <v>17</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="10">
-        <v>991</v>
-      </c>
-      <c r="F111" s="11">
-        <v>1400</v>
-      </c>
-      <c r="G111" s="7">
         <f t="shared" ref="G149:G163" si="8">F149*E149</f>
         <v>1387400</v>
       </c>
-      <c r="H111" s="15"/>
+      <c r="H110" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="16.5" r="111" spans="1:8">
+      <c r="A111" s="13">
+        <v>18</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="10">
+        <v>7</v>
+      </c>
+      <c r="F111" s="11">
+        <v>3200</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="8"/>
+        <v>22400</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="112" spans="1:8">
-      <c r="A112" s="13">
-        <v>18</v>
+      <c r="A112" s="8">
+        <v>19</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="10">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E112" s="10"/>
       <c r="F112" s="11">
-        <v>3200</v>
+        <v>750</v>
       </c>
       <c r="G112" s="7">
         <f t="shared" si="8"/>
-        <v>22400</v>
-      </c>
-      <c r="H112" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="113" spans="1:8">
       <c r="A113" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="11">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H113" s="15"/>
+      <c r="H113" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="114" spans="1:8">
       <c r="A114" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="11">
@@ -4113,11 +4229,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H114" s="15"/>
+      <c r="H114" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="115" spans="1:8">
       <c r="A115" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>10</v>
@@ -4126,21 +4244,23 @@
         <v>11</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="11">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H115" s="15"/>
+      <c r="H115" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="116" spans="1:8">
       <c r="A116" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>10</v>
@@ -4149,21 +4269,23 @@
         <v>11</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="11">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H116" s="15"/>
+      <c r="H116" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="117" spans="1:8">
       <c r="A117" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>10</v>
@@ -4172,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="11">
@@ -4182,11 +4304,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H117" s="15"/>
+      <c r="H117" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="16.5" r="118" spans="1:8">
       <c r="A118" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>10</v>
@@ -4199,40 +4323,44 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="11">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H118" s="15"/>
-    </row>
-    <row ht="16.5" r="119" spans="1:8">
+      <c r="H118" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row hidden="true" ht="16.5" r="119" spans="1:8">
       <c r="A119" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="11">
-        <v>3400</v>
+        <v>240</v>
       </c>
       <c r="G119" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="120" spans="1:8">
       <c r="A120" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>37</v>
@@ -4241,7 +4369,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="11">
@@ -4251,34 +4379,38 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H120" s="15"/>
+      <c r="H120" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="121" spans="1:8">
       <c r="A121" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="11">
-        <v>240</v>
+        <v>2700</v>
       </c>
       <c r="G121" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H121" s="15"/>
+      <c r="H121" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="122" spans="1:8">
       <c r="A122" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>10</v>
@@ -4287,7 +4419,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="11">
@@ -4297,11 +4429,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H122" s="15"/>
+      <c r="H122" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="123" spans="1:8">
       <c r="A123" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>10</v>
@@ -4310,21 +4444,23 @@
         <v>11</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="11">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="G123" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H123" s="15"/>
+      <c r="H123" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="124" spans="1:8">
       <c r="A124" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>10</v>
@@ -4333,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="11">
@@ -4343,34 +4479,40 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H124" s="15"/>
-    </row>
-    <row hidden="true" ht="16.5" r="125" spans="1:8">
+      <c r="H124" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="16.5" r="125" spans="1:8">
       <c r="A125" s="8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="10"/>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="10">
+        <v>575</v>
+      </c>
       <c r="F125" s="11">
-        <v>3400</v>
+        <v>1300</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H125" s="15"/>
+        <f t="shared" ref="G176:G189" si="9">F176*E176</f>
+        <v>747500</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="126" spans="1:8">
       <c r="A126" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>10</v>
@@ -4379,98 +4521,106 @@
         <v>11</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" s="10">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="F126" s="11">
         <v>1300</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" ref="G176:G189" si="9">F176*E176</f>
-        <v>747500</v>
-      </c>
-      <c r="H126" s="15"/>
+        <f t="shared" si="9"/>
+        <v>819000</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="127" spans="1:8">
       <c r="A127" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E127" s="10">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="F127" s="11">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="G127" s="7">
         <f t="shared" si="9"/>
-        <v>819000</v>
-      </c>
-      <c r="H127" s="15"/>
+        <v>140000</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="128" spans="1:8">
       <c r="A128" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E128" s="10">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F128" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G128" s="7">
         <f t="shared" si="9"/>
-        <v>140000</v>
-      </c>
-      <c r="H128" s="15"/>
+        <v>30000</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="129" spans="1:8">
       <c r="A129" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129" s="10">
-        <v>200</v>
+        <v>910</v>
       </c>
       <c r="F129" s="11">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="G129" s="7">
         <f t="shared" si="9"/>
-        <v>30000</v>
-      </c>
-      <c r="H129" s="15"/>
+        <v>819000</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="130" spans="1:8">
       <c r="A130" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>10</v>
@@ -4479,23 +4629,25 @@
         <v>11</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E130" s="10">
-        <v>910</v>
+        <v>245</v>
       </c>
       <c r="F130" s="11">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G130" s="7">
         <f t="shared" si="9"/>
-        <v>819000</v>
-      </c>
-      <c r="H130" s="15"/>
+        <v>269500</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="131" spans="1:8">
       <c r="A131" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>10</v>
@@ -4504,23 +4656,25 @@
         <v>11</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E131" s="10">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F131" s="11">
-        <v>1100</v>
+        <v>1850</v>
       </c>
       <c r="G131" s="7">
         <f t="shared" si="9"/>
-        <v>269500</v>
-      </c>
-      <c r="H131" s="15"/>
+        <v>370000</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="132" spans="1:8">
       <c r="A132" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>10</v>
@@ -4529,23 +4683,25 @@
         <v>11</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E132" s="10">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="F132" s="11">
         <v>1850</v>
       </c>
       <c r="G132" s="7">
         <f t="shared" si="9"/>
-        <v>370000</v>
-      </c>
-      <c r="H132" s="15"/>
+        <v>629000</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="133" spans="1:8">
       <c r="A133" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>10</v>
@@ -4553,24 +4709,26 @@
       <c r="C133" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>23</v>
+      <c r="D133" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E133" s="10">
         <v>340</v>
       </c>
       <c r="F133" s="11">
-        <v>1850</v>
+        <v>2100</v>
       </c>
       <c r="G133" s="7">
         <f t="shared" si="9"/>
-        <v>629000</v>
-      </c>
-      <c r="H133" s="15"/>
+        <v>714000</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="134" spans="1:8">
       <c r="A134" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>10</v>
@@ -4578,24 +4736,26 @@
       <c r="C134" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>24</v>
+      <c r="D134" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E134" s="10">
-        <v>340</v>
+        <v>850</v>
       </c>
       <c r="F134" s="11">
         <v>2100</v>
       </c>
       <c r="G134" s="7">
         <f t="shared" si="9"/>
-        <v>714000</v>
-      </c>
-      <c r="H134" s="15"/>
+        <v>1785000</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="135" spans="1:8">
       <c r="A135" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>10</v>
@@ -4604,23 +4764,25 @@
         <v>11</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E135" s="10">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="F135" s="11">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="G135" s="7">
         <f t="shared" si="9"/>
-        <v>1785000</v>
-      </c>
-      <c r="H135" s="15"/>
+        <v>840000</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="136" spans="1:8">
       <c r="A136" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>10</v>
@@ -4629,94 +4791,102 @@
         <v>11</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" s="10">
-        <v>700</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E136" s="10"/>
       <c r="F136" s="11">
-        <v>1200</v>
+        <v>311</v>
       </c>
       <c r="G136" s="7">
         <f t="shared" si="9"/>
-        <v>840000</v>
-      </c>
-      <c r="H136" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="137" spans="1:8">
       <c r="A137" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>27</v>
+      <c r="D137" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G137" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="H137" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="138" spans="1:8">
       <c r="A138" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E138" s="10">
+        <v>50</v>
+      </c>
       <c r="F138" s="11">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="G138" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H138" s="15"/>
+        <v>50000</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="139" spans="1:8">
       <c r="A139" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E139" s="10">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="F139" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="9"/>
-        <v>50000</v>
-      </c>
-      <c r="H139" s="15"/>
+        <f t="shared" ref="G190:G206" si="10">F190*E190</f>
+        <v>270000</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="140" spans="1:8">
       <c r="A140" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>10</v>
@@ -4725,23 +4895,25 @@
         <v>11</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E140" s="10">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="F140" s="11">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" ref="G190:G206" si="10">F190*E190</f>
-        <v>270000</v>
-      </c>
-      <c r="H140" s="15"/>
+        <f t="shared" si="10"/>
+        <v>13500</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="141" spans="1:8">
       <c r="A141" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>10</v>
@@ -4750,23 +4922,25 @@
         <v>11</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E141" s="10">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F141" s="11">
         <v>1350</v>
       </c>
       <c r="G141" s="7">
         <f t="shared" si="10"/>
-        <v>13500</v>
-      </c>
-      <c r="H141" s="15"/>
+        <v>121500</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>17</v>
+      <c r="A142" s="13">
+        <v>18</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>10</v>
@@ -4775,92 +4949,98 @@
         <v>11</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" s="10">
-        <v>90</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E142" s="10"/>
       <c r="F142" s="11">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="G142" s="7">
         <f t="shared" si="10"/>
-        <v>121500</v>
-      </c>
-      <c r="H142" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="143" spans="1:8">
-      <c r="A143" s="13">
-        <v>18</v>
+      <c r="A143" s="8">
+        <v>19</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="11">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="G143" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H143" s="15"/>
+      <c r="H143" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="144" spans="1:8">
       <c r="A144" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="11">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G144" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H144" s="15"/>
+      <c r="H144" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="145" spans="1:8">
       <c r="A145" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="11">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G145" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H145" s="15"/>
+      <c r="H145" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="146" spans="1:8">
       <c r="A146" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>10</v>
@@ -4869,21 +5049,23 @@
         <v>11</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="11">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="G146" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H146" s="15"/>
+      <c r="H146" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="147" spans="1:8">
       <c r="A147" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>10</v>
@@ -4892,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="11">
@@ -4902,11 +5084,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H147" s="15"/>
+      <c r="H147" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="148" spans="1:8">
       <c r="A148" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>10</v>
@@ -4915,21 +5099,23 @@
         <v>11</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="11">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="G148" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H148" s="15"/>
+      <c r="H148" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row ht="16.5" r="149" spans="1:8">
       <c r="A149" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>10</v>
@@ -4942,40 +5128,44 @@
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="11">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="G149" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H149" s="15"/>
-    </row>
-    <row ht="16.5" r="150" spans="1:8">
+      <c r="H149" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row hidden="true" ht="16.5" r="150" spans="1:8">
       <c r="A150" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="11">
-        <v>2900</v>
+        <v>1256</v>
       </c>
       <c r="G150" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H150" s="15"/>
+      <c r="H150" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="151" spans="1:8">
       <c r="A151" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>37</v>
@@ -4984,44 +5174,48 @@
         <v>15</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="11">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G151" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H151" s="15"/>
+      <c r="H151" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="152" spans="1:8">
       <c r="A152" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="11">
-        <v>1257</v>
+        <v>2550</v>
       </c>
       <c r="G152" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H152" s="15"/>
+      <c r="H152" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="153" spans="1:8">
       <c r="A153" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>10</v>
@@ -5030,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="11">
@@ -5040,11 +5234,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H153" s="15"/>
+      <c r="H153" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="154" spans="1:8">
       <c r="A154" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>10</v>
@@ -5053,21 +5249,23 @@
         <v>11</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="11">
-        <v>2550</v>
+        <v>2900</v>
       </c>
       <c r="G154" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H154" s="15"/>
+      <c r="H154" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row hidden="true" ht="16.5" r="155" spans="1:8">
       <c r="A155" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>10</v>
@@ -5076,44 +5274,19 @@
         <v>11</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E155" s="10"/>
-      <c r="F155" s="11">
-        <v>2900</v>
-      </c>
+      <c r="F155" s="11"/>
       <c r="G155" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H155" s="15"/>
-    </row>
-    <row hidden="true" ht="16.5" r="156" spans="1:8">
-      <c r="A156" s="8">
-        <v>31</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H156" s="15"/>
+      <c r="H155" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I32"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>群组</t>
   </si>
@@ -59,7 +59,7 @@
     <t>折扣金额</t>
   </si>
   <si>
-    <t>1</t>
+    <t>001</t>
   </si>
   <si>
     <t>手机</t>
@@ -83,414 +83,420 @@
     <t>605000</t>
   </si>
   <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>A72 5G PDYT20(128GB 6GB)</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>557500</t>
+  </si>
+  <si>
+    <t>已包装真无线蓝牙耳机</t>
+  </si>
+  <si>
+    <t>副</t>
+  </si>
+  <si>
+    <t>ETI41&amp;ETI42 白色</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>116400</t>
+  </si>
+  <si>
+    <t>已包装OPPO手环</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>OB19B1 静夜黑</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>A32 PDVM00(128GB 4GB)</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>909000</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>A32 PDVM00(128GB 8GB)</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>319000</t>
+  </si>
+  <si>
+    <t>Reno4 SE 5G PEAM00(128GB 8GB)</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>610500</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Reno4 SE 5G PEAT00(128GB 8GB)</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>503200</t>
+  </si>
+  <si>
+    <t>Reno4 SE 5G PEAM00(256GB 8GB)</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>561700</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Reno4 SE 5G PEAT00(256GB 8GB)</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>1129550</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>A72 5G PDYM20(128GB 4GB)</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>566400</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>567600</t>
+  </si>
+  <si>
+    <t>已包装手表</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>OPPO Watch 41mm OW19W2(8GB 1GB)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>A8 PDBM00(64GB 4GB)</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>206250</t>
+  </si>
+  <si>
+    <t>A72 5G PDYT20(128GB 8GB)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>贵州睿泽通通讯电子有限公司</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>662500</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>643750</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>832500</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>283000</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>270000</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>391950</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>682500</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>1098000</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Find X2 Pro PDEM30(256GB 12GB)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>220500</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>310500</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>贵州天晟宏优通讯电子有限公司</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>568100</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>933400</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>317600</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>867600</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>443100</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>828400</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>972800</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>743400</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>1789200</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>861600</t>
+  </si>
+  <si>
+    <t>已包装OPPO 智能电视</t>
+  </si>
+  <si>
+    <t>R1 65英寸 A65U0B00 黑色</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>A72 5G PDYT20(128GB 6GB)</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>557500</t>
-  </si>
-  <si>
-    <t>已包装真无线蓝牙耳机</t>
-  </si>
-  <si>
-    <t>副</t>
-  </si>
-  <si>
-    <t>ETI41&amp;ETI42 白色</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>116400</t>
-  </si>
-  <si>
-    <t>已包装OPPO手环</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>OB19B1 静夜黑</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>A32 PDVM00(128GB 4GB)</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>909000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>A32 PDVM00(128GB 8GB)</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>319000</t>
-  </si>
-  <si>
-    <t>Reno4 SE 5G PEAM00(128GB 8GB)</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>610500</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Reno4 SE 5G PEAT00(128GB 8GB)</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>503200</t>
-  </si>
-  <si>
-    <t>Reno4 SE 5G PEAM00(256GB 8GB)</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>561700</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Reno4 SE 5G PEAT00(256GB 8GB)</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>1129550</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>A72 5G PDYM20(128GB 4GB)</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>566400</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>567600</t>
-  </si>
-  <si>
-    <t>已包装手表</t>
-  </si>
-  <si>
-    <t>块</t>
-  </si>
-  <si>
-    <t>OPPO Watch 41mm OW19W2(8GB 1GB)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>A8 PDBM00(64GB 4GB)</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>206250</t>
-  </si>
-  <si>
-    <t>A72 5G PDYT20(128GB 8GB)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>贵州睿泽通通讯电子有限公司</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>662500</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>643750</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>832500</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>283000</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>270000</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>391950</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>682500</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>1098000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Find X2 Pro PDEM30(256GB 12GB)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>220500</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>310500</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>贵州天晟宏优通讯电子有限公司</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>568100</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>933400</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>317600</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>63000</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>867600</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>443100</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>828400</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>972800</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>743400</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>1789200</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>861600</t>
-  </si>
-  <si>
-    <t>已包装OPPO 智能电视</t>
-  </si>
-  <si>
-    <t>R1 65英寸 A65U0B00 黑色</t>
-  </si>
-  <si>
     <t>3500</t>
   </si>
   <si>
@@ -503,7 +509,7 @@
     <t>163000</t>
   </si>
   <si>
-    <t>27</t>
+    <t>027</t>
   </si>
   <si>
     <t>946</t>
@@ -524,7 +530,7 @@
     <t>103950</t>
   </si>
   <si>
-    <t>28</t>
+    <t>028</t>
   </si>
   <si>
     <t>A72 5G PDYM20(128GB 8GB)</t>
@@ -536,7 +542,7 @@
     <t>537300</t>
   </si>
   <si>
-    <t>29</t>
+    <t>029</t>
   </si>
   <si>
     <t>贵州宏仁泰合通讯电子有限公司</t>
@@ -548,6 +554,9 @@
     <t>770000</t>
   </si>
   <si>
+    <t>030</t>
+  </si>
+  <si>
     <t>728</t>
   </si>
   <si>
@@ -566,7 +575,7 @@
     <t>33300</t>
   </si>
   <si>
-    <t>31</t>
+    <t>031</t>
   </si>
   <si>
     <t>843</t>
@@ -575,7 +584,7 @@
     <t>758700</t>
   </si>
   <si>
-    <t>32</t>
+    <t>032</t>
   </si>
   <si>
     <t>844</t>
@@ -584,7 +593,7 @@
     <t>759600</t>
   </si>
   <si>
-    <t>33</t>
+    <t>033</t>
   </si>
   <si>
     <t>434</t>
@@ -593,7 +602,7 @@
     <t>455700</t>
   </si>
   <si>
-    <t>34</t>
+    <t>034</t>
   </si>
   <si>
     <t>430</t>
@@ -602,10 +611,10 @@
     <t>795500</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
   </si>
   <si>
     <t>565</t>
@@ -614,7 +623,7 @@
     <t>1045250</t>
   </si>
   <si>
-    <t>37</t>
+    <t>037</t>
   </si>
   <si>
     <t>566</t>
@@ -623,7 +632,7 @@
     <t>1047100</t>
   </si>
   <si>
-    <t>38</t>
+    <t>038</t>
   </si>
   <si>
     <t>286</t>
@@ -635,10 +644,10 @@
     <t>572000</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
   </si>
   <si>
     <t>594</t>
@@ -647,7 +656,7 @@
     <t>1188000</t>
   </si>
   <si>
-    <t>41</t>
+    <t>041</t>
   </si>
   <si>
     <t>297</t>
@@ -656,7 +665,7 @@
     <t>594000</t>
   </si>
   <si>
-    <t>42</t>
+    <t>042</t>
   </si>
   <si>
     <t>298</t>
@@ -665,7 +674,7 @@
     <t>596000</t>
   </si>
   <si>
-    <t>43</t>
+    <t>043</t>
   </si>
   <si>
     <t>614</t>
@@ -674,7 +683,7 @@
     <t>736800</t>
   </si>
   <si>
-    <t>44</t>
+    <t>044</t>
   </si>
   <si>
     <t>贵州盛逸宏优通讯电子有限公司</t>
@@ -686,7 +695,7 @@
     <t>747500</t>
   </si>
   <si>
-    <t>45</t>
+    <t>045</t>
   </si>
   <si>
     <t>630</t>
@@ -701,7 +710,7 @@
     <t>140000</t>
   </si>
   <si>
-    <t>46</t>
+    <t>046</t>
   </si>
   <si>
     <t>910</t>
@@ -713,7 +722,7 @@
     <t>269500</t>
   </si>
   <si>
-    <t>47</t>
+    <t>047</t>
   </si>
   <si>
     <t>370000</t>
@@ -725,31 +734,37 @@
     <t>629000</t>
   </si>
   <si>
-    <t>48</t>
+    <t>048</t>
   </si>
   <si>
     <t>714000</t>
   </si>
   <si>
+    <t>049</t>
+  </si>
+  <si>
     <t>425</t>
   </si>
   <si>
     <t>892500</t>
   </si>
   <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>840000</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>840000</t>
-  </si>
-  <si>
     <t>50000</t>
   </si>
   <si>
-    <t>52</t>
+    <t>052</t>
   </si>
   <si>
     <t>360</t>
@@ -1147,8 +1162,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1173,8 +1188,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1199,8 +1214,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1225,8 +1240,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1251,8 +1266,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1277,8 +1292,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>4</v>
+      <c r="A7" t="s">
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1303,8 +1318,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1329,8 +1344,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1355,8 +1370,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>5</v>
+      <c r="A10" t="s">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1381,8 +1396,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1407,8 +1422,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>7</v>
+      <c r="A12" t="s">
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1433,8 +1448,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>8</v>
+      <c r="A13" t="s">
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1459,8 +1474,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>8</v>
+      <c r="A14" t="s">
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -1485,8 +1500,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1511,8 +1526,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>8</v>
+      <c r="A16" t="s">
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1537,8 +1552,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>9</v>
+      <c r="A17" t="s">
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1563,8 +1578,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>10</v>
+      <c r="A18" t="s">
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1589,8 +1604,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>10</v>
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1615,8 +1630,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>10</v>
+      <c r="A20" t="s">
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1641,8 +1656,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>11</v>
+      <c r="A21" t="s">
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1667,8 +1682,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>11</v>
+      <c r="A22" t="s">
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1693,8 +1708,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>12</v>
+      <c r="A23" t="s">
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1719,8 +1734,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>12</v>
+      <c r="A24" t="s">
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1745,8 +1760,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>12</v>
+      <c r="A25" t="s">
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1771,8 +1786,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>13</v>
+      <c r="A26" t="s">
+        <v>108</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1797,8 +1812,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>14</v>
+      <c r="A27" t="s">
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1823,8 +1838,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>15</v>
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1849,8 +1864,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>16</v>
+      <c r="A29" t="s">
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1862,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29">
         <v>49</v>
@@ -1875,8 +1890,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>16</v>
+      <c r="A30" t="s">
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1901,14 +1916,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>17</v>
+      <c r="A31" t="s">
+        <v>122</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -1927,14 +1942,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>18</v>
+      <c r="A32" t="s">
+        <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1953,14 +1968,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>19</v>
+      <c r="A33" t="s">
+        <v>129</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
@@ -1979,14 +1994,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>19</v>
+      <c r="A34" t="s">
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -2005,14 +2020,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>20</v>
+      <c r="A35" t="s">
+        <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2031,14 +2046,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>21</v>
+      <c r="A36" t="s">
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -2057,14 +2072,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>22</v>
+      <c r="A37" t="s">
+        <v>141</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -2083,14 +2098,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>23</v>
+      <c r="A38" t="s">
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -2109,14 +2124,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>24</v>
+      <c r="A39" t="s">
+        <v>148</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -2135,14 +2150,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>25</v>
+      <c r="A40" t="s">
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -2161,14 +2176,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>26</v>
+      <c r="A41" t="s">
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2187,20 +2202,20 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>26</v>
+      <c r="A42" t="s">
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2213,14 +2228,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>26</v>
+      <c r="A43" t="s">
+        <v>155</v>
       </c>
       <c r="B43" t="s">
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>73</v>
@@ -2239,14 +2254,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>27</v>
+      <c r="A44" t="s">
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -2265,14 +2280,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>27</v>
+      <c r="A45" t="s">
+        <v>164</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -2291,20 +2306,20 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>28</v>
+      <c r="A46" t="s">
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F46">
         <v>398</v>
@@ -2317,14 +2332,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>29</v>
+      <c r="A47" t="s">
+        <v>175</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -2343,14 +2358,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>30</v>
+      <c r="A48" t="s">
+        <v>179</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -2369,14 +2384,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>30</v>
+      <c r="A49" t="s">
+        <v>179</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -2395,14 +2410,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>30</v>
+      <c r="A50" t="s">
+        <v>179</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -2421,14 +2436,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>31</v>
+      <c r="A51" t="s">
+        <v>186</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -2447,14 +2462,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>32</v>
+      <c r="A52" t="s">
+        <v>189</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -2473,14 +2488,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>33</v>
+      <c r="A53" t="s">
+        <v>192</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -2499,14 +2514,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>34</v>
+      <c r="A54" t="s">
+        <v>195</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -2525,14 +2540,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>35</v>
+      <c r="A55" t="s">
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -2551,14 +2566,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>36</v>
+      <c r="A56" t="s">
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -2577,14 +2592,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>37</v>
+      <c r="A57" t="s">
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -2603,14 +2618,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>38</v>
+      <c r="A58" t="s">
+        <v>205</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -2629,14 +2644,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>39</v>
+      <c r="A59" t="s">
+        <v>209</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -2655,14 +2670,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>40</v>
+      <c r="A60" t="s">
+        <v>210</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -2681,14 +2696,14 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>41</v>
+      <c r="A61" t="s">
+        <v>213</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -2707,14 +2722,14 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>42</v>
+      <c r="A62" t="s">
+        <v>216</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -2733,14 +2748,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>43</v>
+      <c r="A63" t="s">
+        <v>219</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2759,14 +2774,14 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>44</v>
+      <c r="A64" t="s">
+        <v>222</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -2785,14 +2800,14 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>45</v>
+      <c r="A65" t="s">
+        <v>226</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -2811,14 +2826,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>45</v>
+      <c r="A66" t="s">
+        <v>226</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -2837,14 +2852,14 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>45</v>
+      <c r="A67" t="s">
+        <v>226</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -2863,14 +2878,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>46</v>
+      <c r="A68" t="s">
+        <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -2889,14 +2904,14 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>46</v>
+      <c r="A69" t="s">
+        <v>231</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -2915,14 +2930,14 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>47</v>
+      <c r="A70" t="s">
+        <v>235</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -2941,14 +2956,14 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>47</v>
+      <c r="A71" t="s">
+        <v>235</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -2967,14 +2982,14 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>48</v>
+      <c r="A72" t="s">
+        <v>239</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -2993,14 +3008,14 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>49</v>
+      <c r="A73" t="s">
+        <v>241</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -3019,14 +3034,14 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <v>50</v>
+      <c r="A74" t="s">
+        <v>244</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -3045,14 +3060,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>51</v>
+      <c r="A75" t="s">
+        <v>245</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -3071,14 +3086,14 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <v>51</v>
+      <c r="A76" t="s">
+        <v>245</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
         <v>73</v>
@@ -3097,14 +3112,14 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <v>52</v>
+      <c r="A77" t="s">
+        <v>249</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3123,14 +3138,14 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>52</v>
+      <c r="A78" t="s">
+        <v>249</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
